--- a/Assignment/Module2/Assignment_2_HLR_TESTSCENARIO_TESTCASE.xlsx
+++ b/Assignment/Module2/Assignment_2_HLR_TESTSCENARIO_TESTCASE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HLR_Assignment_2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="1144">
   <si>
     <t xml:space="preserve">Write a scenario of chair
 </t>
@@ -3639,12 +3639,258 @@
   <si>
     <t>"No account found" message</t>
   </si>
+  <si>
+    <t>User successfully links their bank account to WhatsApp Payment.</t>
+  </si>
+  <si>
+    <t>User is unable to link their bank account due to incorrect details or app issues.</t>
+  </si>
+  <si>
+    <t>User successfully sends money to a contact using WhatsApp Payment.</t>
+  </si>
+  <si>
+    <t>User fails to send money due to insufficient balance or network issues.</t>
+  </si>
+  <si>
+    <t>User receives money from a contact via WhatsApp Payment.</t>
+  </si>
+  <si>
+    <t>User doesn't receive the payment notification due to system or notification issues.</t>
+  </si>
+  <si>
+    <t>User successfully views the transaction history in the WhatsApp Payments section.</t>
+  </si>
+  <si>
+    <t>Transaction history is not displayed due to app errors or sync issues.</t>
+  </si>
+  <si>
+    <t>User receives a confirmation message or notification after completing a transaction.</t>
+  </si>
+  <si>
+    <t>User does not receive a confirmation after completing a payment.</t>
+  </si>
+  <si>
+    <t>User successfully adds and verifies multiple payment methods (e.g., UPI, Debit/Credit Card).</t>
+  </si>
+  <si>
+    <t>User cannot add or verify a payment method due to issues with the payment provider or incorrect details.</t>
+  </si>
+  <si>
+    <t>User successfully requests money from a contact using WhatsApp Payments.</t>
+  </si>
+  <si>
+    <t>User is unable to request money from a contact due to app or network issues.</t>
+  </si>
+  <si>
+    <t>User successfully completes a peer-to-peer transfer with an instant transfer option.</t>
+  </si>
+  <si>
+    <t>Instant transfer fails due to bank-related issues or network problems.</t>
+  </si>
+  <si>
+    <t>User successfully initiates a payment for a product/service from a business account.</t>
+  </si>
+  <si>
+    <t>User cannot make a payment to a business due to payment gateway issues.</t>
+  </si>
+  <si>
+    <t>User can disable WhatsApp Payment if they no longer wish to use the feature.</t>
+  </si>
+  <si>
+    <t>User cannot disable or unlink WhatsApp Payments due to app issues or permission errors.</t>
+  </si>
+  <si>
+    <t>User successfully completes a payment using a QR code for a peer-to-peer transfer.</t>
+  </si>
+  <si>
+    <t>QR code scanning fails due to camera issues or incorrect code generation.</t>
+  </si>
+  <si>
+    <t>User receives a notification when a payment request is made by a contact.</t>
+  </si>
+  <si>
+    <t>User does not receive a payment request notification due to app or network issues.</t>
+  </si>
+  <si>
+    <t>User successfully cancels a pending payment before it is processed.</t>
+  </si>
+  <si>
+    <t>User cannot cancel the payment due to app crashes or timing issues.</t>
+  </si>
+  <si>
+    <t>User can view the balance of their linked account within WhatsApp Payment.</t>
+  </si>
+  <si>
+    <t>User's account balance is not updating or syncing properly due to app issues.</t>
+  </si>
+  <si>
+    <t>User is able to add and verify multiple UPI IDs for easy payment transactions.</t>
+  </si>
+  <si>
+    <t>User fails to verify UPI ID due to incorrect information or bank server errors.</t>
+  </si>
+  <si>
+    <t>User successfully sends money using a debit/credit card through WhatsApp Payment.</t>
+  </si>
+  <si>
+    <t>Payment fails due to card-related issues, such as invalid card or insufficient funds.</t>
+  </si>
+  <si>
+    <t>User can split the bill with multiple people using WhatsApp Payments.</t>
+  </si>
+  <si>
+    <t>Bill split feature does not work or shows incorrect amounts due to bugs or app issues.</t>
+  </si>
+  <si>
+    <t>User successfully sets up a pin or security feature for added transaction protection.</t>
+  </si>
+  <si>
+    <t>User cannot set up or change the payment PIN due to app glitches or security restrictions.</t>
+  </si>
+  <si>
+    <t>User can successfully initiate a transaction and complete it without errors.</t>
+  </si>
+  <si>
+    <t>User faces delays in transaction completion due to connectivity or payment gateway issues.</t>
+  </si>
+  <si>
+    <t>User can view transaction details (amount, date, recipient) after a payment is made.</t>
+  </si>
+  <si>
+    <t>Transaction details are missing or not displayed correctly after payment is completed.</t>
+  </si>
+  <si>
+    <t>Test Scenario WhatsApp Group Creation</t>
+  </si>
+  <si>
+    <t>Test Scenario WhatsApp Payment</t>
+  </si>
+  <si>
+    <t>User successfully creates a new WhatsApp group with multiple members.</t>
+  </si>
+  <si>
+    <t>User fails to create a group due to insufficient permissions (e.g., not being an admin).</t>
+  </si>
+  <si>
+    <t>User successfully adds contacts from their phone to the group.</t>
+  </si>
+  <si>
+    <t>User is unable to add contacts due to technical issues or contact syncing errors.</t>
+  </si>
+  <si>
+    <t>User successfully assigns a group name, description, and group photo.</t>
+  </si>
+  <si>
+    <t>User is unable to update the group name, description, or photo due to app errors.</t>
+  </si>
+  <si>
+    <t>User successfully creates a group with a mix of individuals and broadcast lists.</t>
+  </si>
+  <si>
+    <t>Group creation fails when trying to add contacts outside of the allowed limits (e.g., too many members).</t>
+  </si>
+  <si>
+    <t>Group members receive an invite and can join the group without issues.</t>
+  </si>
+  <si>
+    <t>Members cannot join the group due to issues with the invite link or permissions.</t>
+  </si>
+  <si>
+    <t>User successfully assigns an admin role to another member in the group.</t>
+  </si>
+  <si>
+    <t>Admin assignment fails due to app issues or insufficient permissions.</t>
+  </si>
+  <si>
+    <t>Group members can interact and send messages in the group.</t>
+  </si>
+  <si>
+    <t>Group members face issues where they are unable to send or receive messages due to network problems.</t>
+  </si>
+  <si>
+    <t>User successfully removes a member from the group.</t>
+  </si>
+  <si>
+    <t>User cannot remove a member from the group due to permission issues or technical errors.</t>
+  </si>
+  <si>
+    <t>User successfully deletes a group after it's no longer needed.</t>
+  </si>
+  <si>
+    <t>Group cannot be deleted due to system errors or user permission restrictions.</t>
+  </si>
+  <si>
+    <t>User successfully assigns a group picture to represent the group.</t>
+  </si>
+  <si>
+    <t>Group picture fails to upload or is corrupted during upload.</t>
+  </si>
+  <si>
+    <t>User successfully creates a group with up to 256 members (WhatsApp limit).</t>
+  </si>
+  <si>
+    <t>Group creation fails due to exceeding the maximum allowed member limit.</t>
+  </si>
+  <si>
+    <t>Group members successfully receive notifications when messages are posted.</t>
+  </si>
+  <si>
+    <t>Group members do not receive notifications due to muted notifications or app bugs.</t>
+  </si>
+  <si>
+    <t>User successfully edits the group description.</t>
+  </si>
+  <si>
+    <t>User cannot edit the group description due to permission issues or app errors.</t>
+  </si>
+  <si>
+    <t>User successfully shares a group link for others to join.</t>
+  </si>
+  <si>
+    <t>Group invite link is broken or expires prematurely.</t>
+  </si>
+  <si>
+    <t>User successfully removes an admin's role and assigns another person as admin.</t>
+  </si>
+  <si>
+    <t>Admin role reassignment fails due to app or server errors.</t>
+  </si>
+  <si>
+    <t>Admin successfully changes the group settings to “Only admins can send messages.”</t>
+  </si>
+  <si>
+    <t>Admin cannot modify the group settings due to app crashes or permissions issues.</t>
+  </si>
+  <si>
+    <t>User successfully sends media (photos, videos, etc.) to the group.</t>
+  </si>
+  <si>
+    <t>Media files fail to send due to large file size or network connectivity issues.</t>
+  </si>
+  <si>
+    <t>User successfully invites contacts to the group via a shareable link.</t>
+  </si>
+  <si>
+    <t>Group link invitation is not sent or accessible due to network or app issues.</t>
+  </si>
+  <si>
+    <t>Group members can easily see the group’s profile and contact details.</t>
+  </si>
+  <si>
+    <t>Group profile details are not visible or display incorrectly due to bugs or settings issues.</t>
+  </si>
+  <si>
+    <t>User successfully sets up a group poll or survey for members to participate in.</t>
+  </si>
+  <si>
+    <t>Polls or surveys fail to send or display incorrectly in the group.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3731,6 +3977,22 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4138,7 +4400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4209,12 +4471,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4265,15 +4521,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4434,25 +4681,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4465,6 +4700,60 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4846,13 +5135,13 @@
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="105" t="s">
         <v>531</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="106"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+      <c r="A12" s="26"/>
     </row>
     <row r="13" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
@@ -4866,7 +5155,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="29">
+      <c r="A14" s="27">
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -4877,7 +5166,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="29">
+      <c r="A15" s="27">
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -4888,7 +5177,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="29">
+      <c r="A16" s="27">
         <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -4899,7 +5188,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="30">
+      <c r="A17" s="28">
         <v>4</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -4910,7 +5199,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="30">
+      <c r="A18" s="28">
         <v>5</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -4921,7 +5210,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="30">
+      <c r="A19" s="28">
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -4932,7 +5221,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="30">
+      <c r="A20" s="28">
         <v>7</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -4943,7 +5232,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="30">
+      <c r="A21" s="28">
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -4954,7 +5243,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="30">
+      <c r="A22" s="28">
         <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -4965,7 +5254,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="30">
+      <c r="A23" s="28">
         <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -4976,7 +5265,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="30">
+      <c r="A24" s="28">
         <v>11</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -4987,7 +5276,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="30">
+      <c r="A25" s="28">
         <v>12</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -4998,7 +5287,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="30">
+      <c r="A26" s="28">
         <v>13</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -5009,7 +5298,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="30">
+      <c r="A27" s="28">
         <v>14</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -5020,7 +5309,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="30">
+      <c r="A28" s="28">
         <v>15</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -5031,7 +5320,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="30">
+      <c r="A29" s="28">
         <v>16</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -5042,7 +5331,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="30">
+      <c r="A30" s="28">
         <v>17</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -5053,7 +5342,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="30">
+      <c r="A31" s="28">
         <v>18</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -5064,7 +5353,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="30">
+      <c r="A32" s="28">
         <v>19</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -5075,7 +5364,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="30">
+      <c r="A33" s="28">
         <v>20</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -5086,7 +5375,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="30">
+      <c r="A34" s="28">
         <v>21</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -5097,7 +5386,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="30">
+      <c r="A35" s="28">
         <v>22</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -5108,7 +5397,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="30">
+      <c r="A36" s="28">
         <v>22.1</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -5120,438 +5409,438 @@
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="29" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="30" t="s">
         <v>516</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="31" t="s">
         <v>517</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="32" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="35">
+      <c r="A41" s="33">
         <v>1</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="34" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="35">
+      <c r="A42" s="33">
         <v>2</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="34" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="35">
+      <c r="A43" s="33">
         <v>3</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="34" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="35">
+      <c r="A44" s="33">
         <v>4</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="34" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="35">
+      <c r="A45" s="33">
         <v>5</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="34" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="35">
+      <c r="A46" s="33">
         <v>6</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="C46" s="36" t="s">
+      <c r="C46" s="34" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="35">
+      <c r="A47" s="33">
         <v>7</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="34" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="35">
+      <c r="A48" s="33">
         <v>8</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="34" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="35">
+      <c r="A49" s="33">
         <v>9</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="34" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
+      <c r="A50" s="33">
         <v>10</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="34" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
+      <c r="A51" s="33">
         <v>11</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="34" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
+      <c r="A52" s="33">
         <v>12</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="34" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
+      <c r="A53" s="33">
         <v>13</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="34" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="35">
+      <c r="A54" s="33">
         <v>14</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="34" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="35">
+      <c r="A55" s="33">
         <v>15</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="C55" s="36" t="s">
+      <c r="C55" s="34" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="35">
+      <c r="A56" s="33">
         <v>16</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="34" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="35">
+      <c r="A57" s="33">
         <v>17</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="34" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="35">
+      <c r="A58" s="33">
         <v>18</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="34" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="35">
+      <c r="A59" s="33">
         <v>19</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C59" s="34" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="35">
+      <c r="A60" s="33">
         <v>20</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="C60" s="34" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="35">
+      <c r="A61" s="33">
         <v>21</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="34" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="35">
+      <c r="A62" s="33">
         <v>22</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="C62" s="36" t="s">
+      <c r="C62" s="34" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="35">
+      <c r="A63" s="33">
         <v>23</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="34" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="35">
+      <c r="A64" s="33">
         <v>24</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="C64" s="36" t="s">
+      <c r="C64" s="34" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="35">
+      <c r="A65" s="33">
         <v>25</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="34" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="35">
+      <c r="A66" s="33">
         <v>26</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="34" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="35">
+      <c r="A67" s="33">
         <v>27</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="34" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="35">
+      <c r="A68" s="33">
         <v>28</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="34" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="35">
+      <c r="A69" s="33">
         <v>29</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="34" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="35">
+      <c r="A70" s="33">
         <v>30</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="34" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A71" s="35">
+      <c r="A71" s="33">
         <v>31</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="34" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="35">
+      <c r="A72" s="33">
         <v>32</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="C72" s="36" t="s">
+      <c r="C72" s="34" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="35">
+      <c r="A73" s="33">
         <v>33</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="34" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="35">
+      <c r="A74" s="33">
         <v>34</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="34" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="35">
+      <c r="A75" s="33">
         <v>35</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="34" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="35">
+      <c r="A76" s="33">
         <v>36</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="34" t="s">
         <v>648</v>
       </c>
-      <c r="D76" s="37"/>
+      <c r="D76" s="35"/>
     </row>
     <row r="77" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="35">
+      <c r="A77" s="33">
         <v>37</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="34" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="38">
+      <c r="A78" s="36">
         <v>38</v>
       </c>
-      <c r="B78" s="39" t="s">
+      <c r="B78" s="37" t="s">
         <v>651</v>
       </c>
-      <c r="C78" s="40" t="s">
+      <c r="C78" s="38" t="s">
         <v>652</v>
       </c>
     </row>
@@ -5563,119 +5852,119 @@
     </row>
     <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="82" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="41" t="s">
+      <c r="A82" s="39" t="s">
         <v>516</v>
       </c>
-      <c r="B82" s="42" t="s">
+      <c r="B82" s="40" t="s">
         <v>517</v>
       </c>
-      <c r="C82" s="43" t="s">
+      <c r="C82" s="41" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="44">
+      <c r="A83" s="42">
         <v>1</v>
       </c>
-      <c r="B83" s="45" t="s">
+      <c r="B83" s="43" t="s">
         <v>654</v>
       </c>
-      <c r="C83" s="46" t="s">
+      <c r="C83" s="44" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="35">
+      <c r="A84" s="33">
         <v>2</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="34" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="35">
+      <c r="A85" s="33">
         <v>3</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="34" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="35">
+      <c r="A86" s="33">
         <v>4</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="C86" s="36" t="s">
+      <c r="C86" s="34" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="38">
+      <c r="A87" s="36">
         <v>5</v>
       </c>
-      <c r="B87" s="39" t="s">
+      <c r="B87" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="C87" s="40" t="s">
+      <c r="C87" s="38" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="90" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="29" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="92" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="32" t="s">
+      <c r="A92" s="30" t="s">
         <v>516</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="31" t="s">
         <v>517</v>
       </c>
-      <c r="C92" s="34" t="s">
+      <c r="C92" s="32" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="35">
+      <c r="A93" s="33">
         <v>1</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="34" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="35">
+      <c r="A94" s="33">
         <v>2</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="C94" s="36" t="s">
+      <c r="C94" s="34" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="38">
+      <c r="A95" s="36">
         <v>3</v>
       </c>
-      <c r="B95" s="39" t="s">
+      <c r="B95" s="37" t="s">
         <v>663</v>
       </c>
-      <c r="C95" s="40" t="s">
+      <c r="C95" s="38" t="s">
         <v>664</v>
       </c>
     </row>
@@ -5689,10 +5978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C313"/>
+  <dimension ref="A1:C363"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
+      <selection activeCell="G342" sqref="G342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8725,8 +9014,491 @@
         <v>514</v>
       </c>
     </row>
+    <row r="315" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="316" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="114"/>
+      <c r="B316" s="115" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C316"/>
+    </row>
+    <row r="317" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A317"/>
+      <c r="B317"/>
+      <c r="C317"/>
+    </row>
+    <row r="318" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="B318" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="C318" s="119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A319" s="116">
+        <v>1</v>
+      </c>
+      <c r="B319" s="116" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C319" s="116" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A320" s="19">
+        <v>2</v>
+      </c>
+      <c r="B320" s="19" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C320" s="19" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A321" s="19">
+        <v>3</v>
+      </c>
+      <c r="B321" s="19" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C321" s="19" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A322" s="19">
+        <v>4</v>
+      </c>
+      <c r="B322" s="19" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C322" s="19" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A323" s="19">
+        <v>5</v>
+      </c>
+      <c r="B323" s="19" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C323" s="19" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A324" s="19">
+        <v>6</v>
+      </c>
+      <c r="B324" s="19" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C324" s="19" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A325" s="19">
+        <v>7</v>
+      </c>
+      <c r="B325" s="19" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C325" s="19" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A326" s="19">
+        <v>8</v>
+      </c>
+      <c r="B326" s="19" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C326" s="19" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A327" s="19">
+        <v>9</v>
+      </c>
+      <c r="B327" s="19" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C327" s="19" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A328" s="19">
+        <v>10</v>
+      </c>
+      <c r="B328" s="19" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C328" s="19" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A329" s="19">
+        <v>11</v>
+      </c>
+      <c r="B329" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C329" s="19" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A330" s="19">
+        <v>12</v>
+      </c>
+      <c r="B330" s="19" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C330" s="19" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A331" s="19">
+        <v>13</v>
+      </c>
+      <c r="B331" s="19" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C331" s="19" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A332" s="19">
+        <v>14</v>
+      </c>
+      <c r="B332" s="19" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C332" s="19" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A333" s="19">
+        <v>15</v>
+      </c>
+      <c r="B333" s="19" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C333" s="19" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A334" s="19">
+        <v>16</v>
+      </c>
+      <c r="B334" s="19" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C334" s="19" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A335" s="19">
+        <v>17</v>
+      </c>
+      <c r="B335" s="19" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C335" s="19" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A336" s="19">
+        <v>18</v>
+      </c>
+      <c r="B336" s="19" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C336" s="19" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A337" s="19">
+        <v>19</v>
+      </c>
+      <c r="B337" s="19" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C337" s="19" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A338" s="19">
+        <v>20</v>
+      </c>
+      <c r="B338" s="19" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C338" s="19" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="341" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B341" s="115" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="B343" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="C343" s="122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A344" s="19">
+        <v>1</v>
+      </c>
+      <c r="B344" s="19" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C344" s="19" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A345" s="19">
+        <v>2</v>
+      </c>
+      <c r="B345" s="19" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C345" s="19" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A346" s="19">
+        <v>3</v>
+      </c>
+      <c r="B346" s="19" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C346" s="19" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A347" s="19">
+        <v>4</v>
+      </c>
+      <c r="B347" s="19" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C347" s="19" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A348" s="19">
+        <v>5</v>
+      </c>
+      <c r="B348" s="19" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C348" s="19" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A349" s="19">
+        <v>6</v>
+      </c>
+      <c r="B349" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C349" s="19" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A350" s="19">
+        <v>7</v>
+      </c>
+      <c r="B350" s="19" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C350" s="19" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A351" s="19">
+        <v>8</v>
+      </c>
+      <c r="B351" s="19" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C351" s="19" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A352" s="19">
+        <v>9</v>
+      </c>
+      <c r="B352" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C352" s="19" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A353" s="19">
+        <v>10</v>
+      </c>
+      <c r="B353" s="19" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C353" s="19" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A354" s="19">
+        <v>11</v>
+      </c>
+      <c r="B354" s="19" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C354" s="19" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A355" s="19">
+        <v>12</v>
+      </c>
+      <c r="B355" s="19" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C355" s="19" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A356" s="19">
+        <v>13</v>
+      </c>
+      <c r="B356" s="19" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C356" s="19" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A357" s="19">
+        <v>14</v>
+      </c>
+      <c r="B357" s="19" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C357" s="19" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A358" s="19">
+        <v>15</v>
+      </c>
+      <c r="B358" s="19" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C358" s="19" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A359" s="19">
+        <v>16</v>
+      </c>
+      <c r="B359" s="19" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C359" s="19" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A360" s="19">
+        <v>17</v>
+      </c>
+      <c r="B360" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C360" s="19" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A361" s="19">
+        <v>18</v>
+      </c>
+      <c r="B361" s="19" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C361" s="19" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A362" s="19">
+        <v>19</v>
+      </c>
+      <c r="B362" s="19" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C362" s="19" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A363" s="19">
+        <v>20</v>
+      </c>
+      <c r="B363" s="19" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C363" s="19" t="s">
+        <v>1143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8734,3346 +9506,3350 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="50" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="50" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="50" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" style="50" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" style="50" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" style="50" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" style="50" customWidth="1"/>
-    <col min="8" max="8" width="18" style="50" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="51" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="50"/>
+    <col min="1" max="1" width="15.5546875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="45" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" style="45" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" style="45" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="18" style="45" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="46" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="111" t="s">
         <v>665</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-    </row>
-    <row r="3" spans="1:9" s="54" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="113"/>
+    </row>
+    <row r="3" spans="1:9" s="49" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
         <v>666</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="47" t="s">
         <v>667</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="47" t="s">
         <v>668</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="47" t="s">
         <v>669</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="47" t="s">
         <v>670</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="47" t="s">
         <v>671</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="47" t="s">
         <v>672</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="47" t="s">
         <v>673</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="48" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="54" x14ac:dyDescent="0.3">
-      <c r="A4" s="55">
+      <c r="A4" s="50">
         <v>1</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="50">
         <v>1</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="51" t="s">
         <v>532</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="50" t="s">
         <v>676</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="52" t="s">
         <v>677</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="50" t="s">
         <v>678</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="50" t="s">
         <v>679</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.3">
-      <c r="A5" s="55">
+      <c r="A5" s="50">
         <v>2</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="50">
         <v>2</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="54" t="s">
         <v>681</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="55" t="s">
         <v>675</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="55" t="s">
         <v>682</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="56" t="s">
         <v>683</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="57" t="s">
         <v>684</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="55" t="s">
         <v>679</v>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="I5" s="58" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="162" x14ac:dyDescent="0.3">
-      <c r="A6" s="55">
+      <c r="A6" s="50">
         <v>3</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6" s="59">
         <v>3</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="60" t="s">
         <v>685</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="61" t="s">
         <v>687</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="60" t="s">
         <v>688</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="50" t="s">
         <v>679</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A7" s="55">
+      <c r="A7" s="50">
         <v>4</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="50">
         <v>3</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="62" t="s">
         <v>689</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="61" t="s">
         <v>690</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="62" t="s">
         <v>691</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="62" t="s">
         <v>688</v>
       </c>
-      <c r="I7" s="68" t="s">
+      <c r="I7" s="63" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A8" s="55">
+      <c r="A8" s="50">
         <v>5</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="59">
         <v>3</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="62" t="s">
         <v>693</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="61" t="s">
         <v>694</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="50" t="s">
         <v>695</v>
       </c>
-      <c r="H8" s="67" t="s">
+      <c r="H8" s="62" t="s">
         <v>688</v>
       </c>
-      <c r="I8" s="69" t="s">
+      <c r="I8" s="64" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A9" s="55">
+      <c r="A9" s="50">
         <v>6</v>
       </c>
-      <c r="B9" s="55">
+      <c r="B9" s="50">
         <v>3</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="62" t="s">
         <v>696</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="61" t="s">
         <v>697</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="50" t="s">
         <v>698</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="62" t="s">
         <v>688</v>
       </c>
-      <c r="I9" s="69" t="s">
+      <c r="I9" s="64" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A10" s="55">
+      <c r="A10" s="50">
         <v>7</v>
       </c>
-      <c r="B10" s="64">
+      <c r="B10" s="59">
         <v>3</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="61" t="s">
         <v>700</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="50" t="s">
         <v>701</v>
       </c>
-      <c r="H10" s="55" t="s">
+      <c r="H10" s="50" t="s">
         <v>679</v>
       </c>
-      <c r="I10" s="58" t="s">
+      <c r="I10" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A11" s="55">
+      <c r="A11" s="50">
         <v>8</v>
       </c>
-      <c r="B11" s="55">
+      <c r="B11" s="50">
         <v>3</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="61" t="s">
         <v>702</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="50" t="s">
         <v>703</v>
       </c>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="50" t="s">
         <v>679</v>
       </c>
-      <c r="I11" s="58" t="s">
+      <c r="I11" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A12" s="55">
+      <c r="A12" s="50">
         <v>9</v>
       </c>
-      <c r="B12" s="64">
+      <c r="B12" s="59">
         <v>3</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="61" t="s">
         <v>704</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="50" t="s">
         <v>705</v>
       </c>
-      <c r="H12" s="55" t="s">
+      <c r="H12" s="50" t="s">
         <v>679</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A13" s="55">
+      <c r="A13" s="50">
         <v>10</v>
       </c>
-      <c r="B13" s="55">
+      <c r="B13" s="50">
         <v>3</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="61" t="s">
         <v>706</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="50" t="s">
         <v>707</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="62" t="s">
         <v>688</v>
       </c>
-      <c r="I13" s="69" t="s">
+      <c r="I13" s="64" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A14" s="55">
+      <c r="A14" s="50">
         <v>11</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="59">
         <v>3</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="61" t="s">
         <v>708</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="50" t="s">
         <v>709</v>
       </c>
-      <c r="H14" s="55" t="s">
+      <c r="H14" s="50" t="s">
         <v>707</v>
       </c>
-      <c r="I14" s="69" t="s">
+      <c r="I14" s="64" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A15" s="55">
+      <c r="A15" s="50">
         <v>12</v>
       </c>
-      <c r="B15" s="55">
+      <c r="B15" s="50">
         <v>3</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="61" t="s">
         <v>710</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="50" t="s">
         <v>711</v>
       </c>
-      <c r="H15" s="55" t="s">
+      <c r="H15" s="50" t="s">
         <v>707</v>
       </c>
-      <c r="I15" s="69" t="s">
+      <c r="I15" s="64" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="162" x14ac:dyDescent="0.3">
-      <c r="A16" s="55">
+      <c r="A16" s="50">
         <v>13</v>
       </c>
-      <c r="B16" s="64">
+      <c r="B16" s="59">
         <v>3</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="61" t="s">
         <v>712</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="50" t="s">
         <v>713</v>
       </c>
-      <c r="H16" s="55" t="s">
+      <c r="H16" s="50" t="s">
         <v>679</v>
       </c>
-      <c r="I16" s="58" t="s">
+      <c r="I16" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="162" x14ac:dyDescent="0.3">
-      <c r="A17" s="55">
+      <c r="A17" s="50">
         <v>14</v>
       </c>
-      <c r="B17" s="55">
+      <c r="B17" s="50">
         <v>3</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="61" t="s">
         <v>714</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="50" t="s">
         <v>715</v>
       </c>
-      <c r="H17" s="55" t="s">
+      <c r="H17" s="50" t="s">
         <v>679</v>
       </c>
-      <c r="I17" s="58" t="s">
+      <c r="I17" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="162" x14ac:dyDescent="0.3">
-      <c r="A18" s="55">
+      <c r="A18" s="50">
         <v>15</v>
       </c>
-      <c r="B18" s="64">
+      <c r="B18" s="59">
         <v>3</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="61" t="s">
         <v>716</v>
       </c>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="50" t="s">
         <v>717</v>
       </c>
-      <c r="H18" s="55" t="s">
+      <c r="H18" s="50" t="s">
         <v>679</v>
       </c>
-      <c r="I18" s="58" t="s">
+      <c r="I18" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A19" s="55">
+      <c r="A19" s="50">
         <v>16</v>
       </c>
-      <c r="B19" s="55">
+      <c r="B19" s="50">
         <v>3</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="61" t="s">
         <v>718</v>
       </c>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="50" t="s">
         <v>719</v>
       </c>
-      <c r="H19" s="67" t="s">
+      <c r="H19" s="62" t="s">
         <v>688</v>
       </c>
-      <c r="I19" s="69" t="s">
+      <c r="I19" s="64" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A20" s="55">
+      <c r="A20" s="50">
         <v>17</v>
       </c>
-      <c r="B20" s="64">
+      <c r="B20" s="59">
         <v>3</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="61" t="s">
         <v>720</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="50" t="s">
         <v>721</v>
       </c>
-      <c r="H20" s="67" t="s">
+      <c r="H20" s="62" t="s">
         <v>688</v>
       </c>
-      <c r="I20" s="69" t="s">
+      <c r="I20" s="64" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A21" s="55">
+      <c r="A21" s="50">
         <v>18</v>
       </c>
-      <c r="B21" s="55">
+      <c r="B21" s="50">
         <v>3</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="61" t="s">
         <v>722</v>
       </c>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="50" t="s">
         <v>723</v>
       </c>
-      <c r="H21" s="67" t="s">
+      <c r="H21" s="62" t="s">
         <v>688</v>
       </c>
-      <c r="I21" s="69" t="s">
+      <c r="I21" s="64" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A22" s="64">
+      <c r="A22" s="59">
         <v>19</v>
       </c>
-      <c r="B22" s="64">
+      <c r="B22" s="59">
         <v>3</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F22" s="66" t="s">
+      <c r="F22" s="61" t="s">
         <v>724</v>
       </c>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="50" t="s">
         <v>725</v>
       </c>
-      <c r="H22" s="67" t="s">
+      <c r="H22" s="62" t="s">
         <v>688</v>
       </c>
-      <c r="I22" s="69" t="s">
+      <c r="I22" s="64" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A23" s="64">
+      <c r="A23" s="59">
         <v>20</v>
       </c>
-      <c r="B23" s="55">
+      <c r="B23" s="50">
         <v>3</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="61" t="s">
         <v>726</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="50" t="s">
         <v>727</v>
       </c>
-      <c r="H23" s="67" t="s">
+      <c r="H23" s="62" t="s">
         <v>688</v>
       </c>
-      <c r="I23" s="69" t="s">
+      <c r="I23" s="64" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A24" s="64">
+      <c r="A24" s="59">
         <v>21</v>
       </c>
-      <c r="B24" s="64">
+      <c r="B24" s="59">
         <v>3</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F24" s="66" t="s">
+      <c r="F24" s="61" t="s">
         <v>728</v>
       </c>
-      <c r="G24" s="55" t="s">
+      <c r="G24" s="50" t="s">
         <v>729</v>
       </c>
-      <c r="H24" s="55" t="s">
+      <c r="H24" s="50" t="s">
         <v>679</v>
       </c>
-      <c r="I24" s="58" t="s">
+      <c r="I24" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A25" s="64">
+      <c r="A25" s="59">
         <v>22</v>
       </c>
-      <c r="B25" s="55">
+      <c r="B25" s="50">
         <v>3</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F25" s="66" t="s">
+      <c r="F25" s="61" t="s">
         <v>730</v>
       </c>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="50" t="s">
         <v>731</v>
       </c>
-      <c r="H25" s="67" t="s">
+      <c r="H25" s="62" t="s">
         <v>688</v>
       </c>
-      <c r="I25" s="69" t="s">
+      <c r="I25" s="64" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A26" s="64">
+      <c r="A26" s="59">
         <v>23</v>
       </c>
-      <c r="B26" s="64">
+      <c r="B26" s="59">
         <v>3</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F26" s="66" t="s">
+      <c r="F26" s="61" t="s">
         <v>732</v>
       </c>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="50" t="s">
         <v>733</v>
       </c>
-      <c r="H26" s="67" t="s">
+      <c r="H26" s="62" t="s">
         <v>688</v>
       </c>
-      <c r="I26" s="69" t="s">
+      <c r="I26" s="64" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A27" s="64">
+      <c r="A27" s="59">
         <v>24</v>
       </c>
-      <c r="B27" s="55">
+      <c r="B27" s="50">
         <v>3</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F27" s="66" t="s">
+      <c r="F27" s="61" t="s">
         <v>734</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="50" t="s">
         <v>735</v>
       </c>
-      <c r="H27" s="67" t="s">
+      <c r="H27" s="62" t="s">
         <v>688</v>
       </c>
-      <c r="I27" s="69" t="s">
+      <c r="I27" s="64" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A28" s="64">
+      <c r="A28" s="59">
         <v>25</v>
       </c>
-      <c r="B28" s="64">
+      <c r="B28" s="59">
         <v>3</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F28" s="66" t="s">
+      <c r="F28" s="61" t="s">
         <v>736</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="50" t="s">
         <v>737</v>
       </c>
-      <c r="H28" s="67" t="s">
+      <c r="H28" s="62" t="s">
         <v>688</v>
       </c>
-      <c r="I28" s="69" t="s">
+      <c r="I28" s="64" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="180" x14ac:dyDescent="0.3">
-      <c r="A29" s="64">
+      <c r="A29" s="59">
         <v>26</v>
       </c>
-      <c r="B29" s="55">
+      <c r="B29" s="50">
         <v>3</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="61" t="s">
         <v>738</v>
       </c>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="50" t="s">
         <v>739</v>
       </c>
-      <c r="H29" s="55" t="s">
+      <c r="H29" s="50" t="s">
         <v>679</v>
       </c>
-      <c r="I29" s="58" t="s">
+      <c r="I29" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A30" s="64">
+      <c r="A30" s="59">
         <v>27</v>
       </c>
-      <c r="B30" s="64">
+      <c r="B30" s="59">
         <v>3</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F30" s="66" t="s">
+      <c r="F30" s="61" t="s">
         <v>740</v>
       </c>
-      <c r="G30" s="55" t="s">
+      <c r="G30" s="50" t="s">
         <v>741</v>
       </c>
-      <c r="H30" s="55" t="s">
+      <c r="H30" s="50" t="s">
         <v>679</v>
       </c>
-      <c r="I30" s="58" t="s">
+      <c r="I30" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A31" s="64">
+      <c r="A31" s="59">
         <v>28</v>
       </c>
-      <c r="B31" s="55">
+      <c r="B31" s="50">
         <v>3</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D31" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F31" s="66" t="s">
+      <c r="F31" s="61" t="s">
         <v>742</v>
       </c>
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="50" t="s">
         <v>743</v>
       </c>
-      <c r="H31" s="55" t="s">
+      <c r="H31" s="50" t="s">
         <v>679</v>
       </c>
-      <c r="I31" s="58" t="s">
+      <c r="I31" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A32" s="64">
+      <c r="A32" s="59">
         <v>29</v>
       </c>
-      <c r="B32" s="64">
+      <c r="B32" s="59">
         <v>3</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E32" s="55" t="s">
+      <c r="E32" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F32" s="66" t="s">
+      <c r="F32" s="61" t="s">
         <v>744</v>
       </c>
-      <c r="G32" s="55" t="s">
+      <c r="G32" s="50" t="s">
         <v>745</v>
       </c>
-      <c r="H32" s="67" t="s">
+      <c r="H32" s="62" t="s">
         <v>688</v>
       </c>
-      <c r="I32" s="69" t="s">
+      <c r="I32" s="64" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A33" s="64">
+      <c r="A33" s="59">
         <v>30</v>
       </c>
-      <c r="B33" s="55">
+      <c r="B33" s="50">
         <v>3</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D33" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F33" s="66" t="s">
+      <c r="F33" s="61" t="s">
         <v>746</v>
       </c>
-      <c r="G33" s="55" t="s">
+      <c r="G33" s="50" t="s">
         <v>747</v>
       </c>
-      <c r="H33" s="67" t="s">
+      <c r="H33" s="62" t="s">
         <v>688</v>
       </c>
-      <c r="I33" s="69" t="s">
+      <c r="I33" s="64" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A34" s="64">
+      <c r="A34" s="59">
         <v>31</v>
       </c>
-      <c r="B34" s="64">
+      <c r="B34" s="59">
         <v>3</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D34" s="55" t="s">
+      <c r="D34" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E34" s="55" t="s">
+      <c r="E34" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F34" s="66" t="s">
+      <c r="F34" s="61" t="s">
         <v>748</v>
       </c>
-      <c r="G34" s="55" t="s">
+      <c r="G34" s="50" t="s">
         <v>749</v>
       </c>
-      <c r="H34" s="67" t="s">
+      <c r="H34" s="62" t="s">
         <v>688</v>
       </c>
-      <c r="I34" s="69" t="s">
+      <c r="I34" s="64" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A35" s="64">
+      <c r="A35" s="59">
         <v>32</v>
       </c>
-      <c r="B35" s="55">
+      <c r="B35" s="50">
         <v>3</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="50" t="s">
         <v>699</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="F35" s="66" t="s">
+      <c r="F35" s="61" t="s">
         <v>750</v>
       </c>
-      <c r="G35" s="55" t="s">
+      <c r="G35" s="50" t="s">
         <v>751</v>
       </c>
-      <c r="H35" s="67" t="s">
+      <c r="H35" s="62" t="s">
         <v>688</v>
       </c>
-      <c r="I35" s="69" t="s">
+      <c r="I35" s="64" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="111" t="s">
         <v>752</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="49"/>
-    </row>
-    <row r="40" spans="1:9" s="54" customFormat="1" ht="36" x14ac:dyDescent="0.3">
-      <c r="A40" s="70" t="s">
+      <c r="B38" s="112"/>
+      <c r="C38" s="113"/>
+    </row>
+    <row r="40" spans="1:9" s="49" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="A40" s="65" t="s">
         <v>666</v>
       </c>
-      <c r="B40" s="70" t="s">
+      <c r="B40" s="65" t="s">
         <v>667</v>
       </c>
-      <c r="C40" s="70" t="s">
+      <c r="C40" s="65" t="s">
         <v>668</v>
       </c>
-      <c r="D40" s="70" t="s">
+      <c r="D40" s="65" t="s">
         <v>669</v>
       </c>
-      <c r="E40" s="70" t="s">
+      <c r="E40" s="65" t="s">
         <v>670</v>
       </c>
-      <c r="F40" s="70" t="s">
+      <c r="F40" s="65" t="s">
         <v>671</v>
       </c>
-      <c r="G40" s="70" t="s">
+      <c r="G40" s="65" t="s">
         <v>672</v>
       </c>
-      <c r="H40" s="70" t="s">
+      <c r="H40" s="65" t="s">
         <v>673</v>
       </c>
-      <c r="I40" s="71" t="s">
+      <c r="I40" s="66" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A41" s="55">
+      <c r="A41" s="50">
         <v>1</v>
       </c>
-      <c r="B41" s="55">
+      <c r="B41" s="50">
         <v>1</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="50" t="s">
         <v>532</v>
       </c>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E41" s="55" t="s">
+      <c r="E41" s="50" t="s">
         <v>753</v>
       </c>
-      <c r="F41" s="72" t="s">
+      <c r="F41" s="67" t="s">
         <v>754</v>
       </c>
-      <c r="G41" s="55" t="s">
+      <c r="G41" s="50" t="s">
         <v>755</v>
       </c>
-      <c r="H41" s="55" t="s">
+      <c r="H41" s="50" t="s">
         <v>756</v>
       </c>
-      <c r="I41" s="58" t="s">
+      <c r="I41" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="90" x14ac:dyDescent="0.3">
-      <c r="A42" s="55">
+      <c r="A42" s="50">
         <v>2</v>
       </c>
-      <c r="B42" s="55">
+      <c r="B42" s="50">
         <v>2</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="50" t="s">
         <v>757</v>
       </c>
-      <c r="D42" s="55" t="s">
+      <c r="D42" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E42" s="55" t="s">
+      <c r="E42" s="50" t="s">
         <v>758</v>
       </c>
-      <c r="F42" s="55" t="s">
+      <c r="F42" s="50" t="s">
         <v>683</v>
       </c>
-      <c r="G42" s="55" t="s">
+      <c r="G42" s="50" t="s">
         <v>759</v>
       </c>
-      <c r="H42" s="55" t="s">
+      <c r="H42" s="50" t="s">
         <v>756</v>
       </c>
-      <c r="I42" s="58" t="s">
+      <c r="I42" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="90" x14ac:dyDescent="0.3">
-      <c r="A43" s="55">
+      <c r="A43" s="50">
         <v>3</v>
       </c>
-      <c r="B43" s="55">
+      <c r="B43" s="50">
         <v>2.1</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="50" t="s">
         <v>760</v>
       </c>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E43" s="55" t="s">
+      <c r="E43" s="50" t="s">
         <v>761</v>
       </c>
-      <c r="F43" s="55" t="s">
+      <c r="F43" s="50" t="s">
         <v>683</v>
       </c>
-      <c r="G43" s="55" t="s">
+      <c r="G43" s="50" t="s">
         <v>762</v>
       </c>
-      <c r="H43" s="55" t="s">
+      <c r="H43" s="50" t="s">
         <v>756</v>
       </c>
-      <c r="I43" s="58" t="s">
+      <c r="I43" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="54" x14ac:dyDescent="0.3">
-      <c r="A44" s="55">
+      <c r="A44" s="50">
         <v>4</v>
       </c>
-      <c r="B44" s="73" t="s">
+      <c r="B44" s="68" t="s">
         <v>763</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="50" t="s">
         <v>764</v>
       </c>
-      <c r="D44" s="55" t="s">
+      <c r="D44" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E44" s="55" t="s">
+      <c r="E44" s="50" t="s">
         <v>765</v>
       </c>
-      <c r="F44" s="55" t="s">
+      <c r="F44" s="50" t="s">
         <v>683</v>
       </c>
-      <c r="G44" s="55" t="s">
+      <c r="G44" s="50" t="s">
         <v>766</v>
       </c>
-      <c r="H44" s="55" t="s">
+      <c r="H44" s="50" t="s">
         <v>756</v>
       </c>
-      <c r="I44" s="58" t="s">
+      <c r="I44" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A45" s="55">
+      <c r="A45" s="50">
         <v>5</v>
       </c>
-      <c r="B45" s="55">
+      <c r="B45" s="50">
         <v>3</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="C45" s="50" t="s">
         <v>767</v>
       </c>
-      <c r="D45" s="55" t="s">
+      <c r="D45" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E45" s="55" t="s">
+      <c r="E45" s="50" t="s">
         <v>768</v>
       </c>
-      <c r="F45" s="55" t="s">
+      <c r="F45" s="50" t="s">
         <v>683</v>
       </c>
-      <c r="G45" s="55" t="s">
+      <c r="G45" s="50" t="s">
         <v>769</v>
       </c>
-      <c r="H45" s="55" t="s">
+      <c r="H45" s="50" t="s">
         <v>756</v>
       </c>
-      <c r="I45" s="58" t="s">
+      <c r="I45" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="126" x14ac:dyDescent="0.3">
-      <c r="A46" s="55">
+      <c r="A46" s="50">
         <v>6</v>
       </c>
-      <c r="B46" s="55">
+      <c r="B46" s="50">
         <v>4</v>
       </c>
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="50" t="s">
         <v>770</v>
       </c>
-      <c r="D46" s="55" t="s">
+      <c r="D46" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E46" s="55" t="s">
+      <c r="E46" s="50" t="s">
         <v>771</v>
       </c>
-      <c r="F46" s="55" t="s">
+      <c r="F46" s="50" t="s">
         <v>683</v>
       </c>
-      <c r="G46" s="55" t="s">
+      <c r="G46" s="50" t="s">
         <v>772</v>
       </c>
-      <c r="H46" s="55" t="s">
+      <c r="H46" s="50" t="s">
         <v>756</v>
       </c>
-      <c r="I46" s="58" t="s">
+      <c r="I46" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A47" s="55">
+      <c r="A47" s="50">
         <v>7</v>
       </c>
-      <c r="B47" s="55">
+      <c r="B47" s="50">
         <v>5</v>
       </c>
-      <c r="C47" s="55" t="s">
+      <c r="C47" s="50" t="s">
         <v>773</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E47" s="55" t="s">
+      <c r="E47" s="50" t="s">
         <v>774</v>
       </c>
-      <c r="F47" s="55" t="s">
+      <c r="F47" s="50" t="s">
         <v>683</v>
       </c>
-      <c r="G47" s="55" t="s">
+      <c r="G47" s="50" t="s">
         <v>775</v>
       </c>
-      <c r="H47" s="55" t="s">
+      <c r="H47" s="50" t="s">
         <v>756</v>
       </c>
-      <c r="I47" s="58" t="s">
+      <c r="I47" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="90" x14ac:dyDescent="0.3">
-      <c r="A48" s="55">
+      <c r="A48" s="50">
         <v>8</v>
       </c>
-      <c r="B48" s="55">
+      <c r="B48" s="50">
         <v>6</v>
       </c>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="50" t="s">
         <v>776</v>
       </c>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E48" s="55" t="s">
+      <c r="E48" s="50" t="s">
         <v>777</v>
       </c>
-      <c r="F48" s="55" t="s">
+      <c r="F48" s="50" t="s">
         <v>683</v>
       </c>
-      <c r="G48" s="55" t="s">
+      <c r="G48" s="50" t="s">
         <v>778</v>
       </c>
-      <c r="H48" s="55" t="s">
+      <c r="H48" s="50" t="s">
         <v>756</v>
       </c>
-      <c r="I48" s="58" t="s">
+      <c r="I48" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="90" x14ac:dyDescent="0.3">
-      <c r="A49" s="55">
+      <c r="A49" s="50">
         <v>9</v>
       </c>
-      <c r="B49" s="55">
+      <c r="B49" s="50">
         <v>7</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="50" t="s">
         <v>779</v>
       </c>
-      <c r="D49" s="55" t="s">
+      <c r="D49" s="50" t="s">
         <v>780</v>
       </c>
-      <c r="E49" s="55" t="s">
+      <c r="E49" s="50" t="s">
         <v>781</v>
       </c>
-      <c r="F49" s="55" t="s">
+      <c r="F49" s="50" t="s">
         <v>683</v>
       </c>
-      <c r="G49" s="55" t="s">
+      <c r="G49" s="50" t="s">
         <v>782</v>
       </c>
-      <c r="H49" s="55" t="s">
+      <c r="H49" s="50" t="s">
         <v>756</v>
       </c>
-      <c r="I49" s="58" t="s">
+      <c r="I49" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A50" s="55">
+      <c r="A50" s="50">
         <v>10</v>
       </c>
-      <c r="B50" s="55">
+      <c r="B50" s="50">
         <v>8</v>
       </c>
-      <c r="C50" s="55" t="s">
+      <c r="C50" s="50" t="s">
         <v>783</v>
       </c>
-      <c r="D50" s="55" t="s">
+      <c r="D50" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E50" s="55" t="s">
+      <c r="E50" s="50" t="s">
         <v>784</v>
       </c>
-      <c r="F50" s="55" t="s">
+      <c r="F50" s="50" t="s">
         <v>683</v>
       </c>
-      <c r="G50" s="55" t="s">
+      <c r="G50" s="50" t="s">
         <v>785</v>
       </c>
-      <c r="H50" s="55" t="s">
+      <c r="H50" s="50" t="s">
         <v>756</v>
       </c>
-      <c r="I50" s="58" t="s">
+      <c r="I50" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="108" x14ac:dyDescent="0.3">
-      <c r="A51" s="55">
+      <c r="A51" s="50">
         <v>11</v>
       </c>
-      <c r="B51" s="55">
+      <c r="B51" s="50">
         <v>8.1</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="50" t="s">
         <v>786</v>
       </c>
-      <c r="D51" s="55" t="s">
+      <c r="D51" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E51" s="55" t="s">
+      <c r="E51" s="50" t="s">
         <v>787</v>
       </c>
-      <c r="F51" s="55" t="s">
+      <c r="F51" s="50" t="s">
         <v>683</v>
       </c>
-      <c r="G51" s="55" t="s">
+      <c r="G51" s="50" t="s">
         <v>788</v>
       </c>
-      <c r="H51" s="55" t="s">
+      <c r="H51" s="50" t="s">
         <v>756</v>
       </c>
-      <c r="I51" s="58" t="s">
+      <c r="I51" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A52" s="55">
+      <c r="A52" s="50">
         <v>12</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="50" t="s">
         <v>789</v>
       </c>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="50" t="s">
         <v>790</v>
       </c>
-      <c r="D52" s="55" t="s">
+      <c r="D52" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E52" s="55" t="s">
+      <c r="E52" s="50" t="s">
         <v>791</v>
       </c>
-      <c r="F52" s="55" t="s">
+      <c r="F52" s="50" t="s">
         <v>792</v>
       </c>
-      <c r="G52" s="55" t="s">
+      <c r="G52" s="50" t="s">
         <v>793</v>
       </c>
-      <c r="H52" s="55" t="s">
+      <c r="H52" s="50" t="s">
         <v>756</v>
       </c>
-      <c r="I52" s="58" t="s">
+      <c r="I52" s="53" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A53" s="55">
+      <c r="A53" s="50">
         <v>13</v>
       </c>
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="50" t="s">
         <v>795</v>
       </c>
-      <c r="C53" s="55" t="s">
+      <c r="C53" s="50" t="s">
         <v>790</v>
       </c>
-      <c r="D53" s="55" t="s">
+      <c r="D53" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E53" s="55" t="s">
+      <c r="E53" s="50" t="s">
         <v>796</v>
       </c>
-      <c r="F53" s="55" t="s">
+      <c r="F53" s="50" t="s">
         <v>797</v>
       </c>
-      <c r="G53" s="55" t="s">
+      <c r="G53" s="50" t="s">
         <v>798</v>
       </c>
-      <c r="H53" s="55" t="s">
+      <c r="H53" s="50" t="s">
         <v>756</v>
       </c>
-      <c r="I53" s="58" t="s">
+      <c r="I53" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A54" s="55">
+      <c r="A54" s="50">
         <v>14</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="50" t="s">
         <v>799</v>
       </c>
-      <c r="C54" s="55" t="s">
+      <c r="C54" s="50" t="s">
         <v>800</v>
       </c>
-      <c r="D54" s="55" t="s">
+      <c r="D54" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E54" s="55" t="s">
+      <c r="E54" s="50" t="s">
         <v>801</v>
       </c>
-      <c r="F54" s="55" t="s">
+      <c r="F54" s="50" t="s">
         <v>802</v>
       </c>
-      <c r="G54" s="55" t="s">
+      <c r="G54" s="50" t="s">
         <v>803</v>
       </c>
-      <c r="H54" s="55" t="s">
+      <c r="H54" s="50" t="s">
         <v>756</v>
       </c>
-      <c r="I54" s="58" t="s">
+      <c r="I54" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="108" x14ac:dyDescent="0.3">
-      <c r="A55" s="55">
+      <c r="A55" s="50">
         <v>15</v>
       </c>
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="50" t="s">
         <v>804</v>
       </c>
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="50" t="s">
         <v>805</v>
       </c>
-      <c r="D55" s="55" t="s">
+      <c r="D55" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E55" s="55" t="s">
+      <c r="E55" s="50" t="s">
         <v>806</v>
       </c>
-      <c r="F55" s="55" t="s">
+      <c r="F55" s="50" t="s">
         <v>807</v>
       </c>
-      <c r="G55" s="55" t="s">
+      <c r="G55" s="50" t="s">
         <v>808</v>
       </c>
-      <c r="H55" s="55" t="s">
+      <c r="H55" s="50" t="s">
         <v>756</v>
       </c>
-      <c r="I55" s="58" t="s">
+      <c r="I55" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="126" x14ac:dyDescent="0.3">
-      <c r="A56" s="55">
+      <c r="A56" s="50">
         <v>16</v>
       </c>
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="50" t="s">
         <v>809</v>
       </c>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="50" t="s">
         <v>810</v>
       </c>
-      <c r="D56" s="55" t="s">
+      <c r="D56" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E56" s="55" t="s">
+      <c r="E56" s="50" t="s">
         <v>811</v>
       </c>
-      <c r="F56" s="55" t="s">
+      <c r="F56" s="50" t="s">
         <v>812</v>
       </c>
-      <c r="G56" s="55" t="s">
+      <c r="G56" s="50" t="s">
         <v>813</v>
       </c>
-      <c r="H56" s="55" t="s">
+      <c r="H56" s="50" t="s">
         <v>756</v>
       </c>
-      <c r="I56" s="58" t="s">
+      <c r="I56" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="162" x14ac:dyDescent="0.3">
-      <c r="A57" s="55">
+      <c r="A57" s="50">
         <v>17</v>
       </c>
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="50" t="s">
         <v>814</v>
       </c>
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="50" t="s">
         <v>815</v>
       </c>
-      <c r="D57" s="55" t="s">
+      <c r="D57" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E57" s="55" t="s">
+      <c r="E57" s="50" t="s">
         <v>816</v>
       </c>
-      <c r="F57" s="55" t="s">
+      <c r="F57" s="50" t="s">
         <v>817</v>
       </c>
-      <c r="G57" s="55" t="s">
+      <c r="G57" s="50" t="s">
         <v>818</v>
       </c>
-      <c r="H57" s="55" t="s">
+      <c r="H57" s="50" t="s">
         <v>819</v>
       </c>
-      <c r="I57" s="69" t="s">
+      <c r="I57" s="64" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="90" x14ac:dyDescent="0.3">
-      <c r="A58" s="55">
+      <c r="A58" s="50">
         <v>18</v>
       </c>
-      <c r="B58" s="55">
+      <c r="B58" s="50">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C58" s="55" t="s">
+      <c r="C58" s="50" t="s">
         <v>820</v>
       </c>
-      <c r="D58" s="55" t="s">
+      <c r="D58" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E58" s="55" t="s">
+      <c r="E58" s="50" t="s">
         <v>821</v>
       </c>
-      <c r="F58" s="55" t="s">
+      <c r="F58" s="50" t="s">
         <v>822</v>
       </c>
-      <c r="G58" s="55" t="s">
+      <c r="G58" s="50" t="s">
         <v>823</v>
       </c>
-      <c r="H58" s="55" t="s">
+      <c r="H58" s="50" t="s">
         <v>756</v>
       </c>
-      <c r="I58" s="58" t="s">
+      <c r="I58" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="126" x14ac:dyDescent="0.3">
-      <c r="A59" s="55">
+      <c r="A59" s="50">
         <v>19</v>
       </c>
-      <c r="B59" s="55">
+      <c r="B59" s="50">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C59" s="55" t="s">
+      <c r="C59" s="50" t="s">
         <v>820</v>
       </c>
-      <c r="D59" s="55" t="s">
+      <c r="D59" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E59" s="55" t="s">
+      <c r="E59" s="50" t="s">
         <v>824</v>
       </c>
-      <c r="F59" s="55" t="s">
+      <c r="F59" s="50" t="s">
         <v>825</v>
       </c>
-      <c r="G59" s="55" t="s">
+      <c r="G59" s="50" t="s">
         <v>826</v>
       </c>
-      <c r="H59" s="55" t="s">
+      <c r="H59" s="50" t="s">
         <v>827</v>
       </c>
-      <c r="I59" s="69" t="s">
+      <c r="I59" s="64" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="108" x14ac:dyDescent="0.3">
-      <c r="A60" s="55">
+      <c r="A60" s="50">
         <v>20</v>
       </c>
-      <c r="B60" s="55">
+      <c r="B60" s="50">
         <v>8.4</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="50" t="s">
         <v>828</v>
       </c>
-      <c r="D60" s="55" t="s">
+      <c r="D60" s="50" t="s">
         <v>675</v>
       </c>
-      <c r="E60" s="55" t="s">
+      <c r="E60" s="50" t="s">
         <v>829</v>
       </c>
-      <c r="F60" s="55" t="s">
+      <c r="F60" s="50" t="s">
         <v>683</v>
       </c>
-      <c r="G60" s="55" t="s">
+      <c r="G60" s="50" t="s">
         <v>830</v>
       </c>
-      <c r="H60" s="55" t="s">
+      <c r="H60" s="50" t="s">
         <v>756</v>
       </c>
-      <c r="I60" s="58" t="s">
+      <c r="I60" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="63" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="47" t="s">
+      <c r="A63" s="111" t="s">
         <v>831</v>
       </c>
-      <c r="B63" s="48"/>
-      <c r="C63" s="49"/>
+      <c r="B63" s="112"/>
+      <c r="C63" s="113"/>
     </row>
     <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="65" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="74" t="s">
+      <c r="A65" s="69" t="s">
         <v>666</v>
       </c>
-      <c r="B65" s="75" t="s">
+      <c r="B65" s="70" t="s">
         <v>667</v>
       </c>
-      <c r="C65" s="75" t="s">
+      <c r="C65" s="70" t="s">
         <v>668</v>
       </c>
-      <c r="D65" s="75" t="s">
+      <c r="D65" s="70" t="s">
         <v>669</v>
       </c>
-      <c r="E65" s="75" t="s">
+      <c r="E65" s="70" t="s">
         <v>670</v>
       </c>
-      <c r="F65" s="75" t="s">
+      <c r="F65" s="70" t="s">
         <v>671</v>
       </c>
-      <c r="G65" s="75" t="s">
+      <c r="G65" s="70" t="s">
         <v>672</v>
       </c>
-      <c r="H65" s="75" t="s">
+      <c r="H65" s="70" t="s">
         <v>673</v>
       </c>
-      <c r="I65" s="76" t="s">
+      <c r="I65" s="71" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A66" s="77">
+      <c r="A66" s="72">
         <v>1</v>
       </c>
-      <c r="B66" s="78">
+      <c r="B66" s="73">
         <v>1</v>
       </c>
-      <c r="C66" s="79" t="s">
+      <c r="C66" s="74" t="s">
         <v>832</v>
       </c>
-      <c r="D66" s="79" t="s">
+      <c r="D66" s="74" t="s">
         <v>833</v>
       </c>
-      <c r="E66" s="79" t="s">
+      <c r="E66" s="74" t="s">
         <v>834</v>
       </c>
-      <c r="F66" s="79" t="s">
+      <c r="F66" s="74" t="s">
         <v>683</v>
       </c>
-      <c r="G66" s="79" t="s">
+      <c r="G66" s="74" t="s">
         <v>835</v>
       </c>
-      <c r="H66" s="79" t="s">
+      <c r="H66" s="74" t="s">
         <v>836</v>
       </c>
-      <c r="I66" s="80" t="s">
+      <c r="I66" s="75" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="81">
+      <c r="A67" s="76">
         <v>2</v>
       </c>
-      <c r="B67" s="82">
+      <c r="B67" s="77">
         <v>2</v>
       </c>
-      <c r="C67" s="83" t="s">
+      <c r="C67" s="78" t="s">
         <v>837</v>
       </c>
-      <c r="D67" s="83" t="s">
+      <c r="D67" s="78" t="s">
         <v>838</v>
       </c>
-      <c r="E67" s="83" t="s">
+      <c r="E67" s="78" t="s">
         <v>839</v>
       </c>
-      <c r="F67" s="83" t="s">
+      <c r="F67" s="78" t="s">
         <v>840</v>
       </c>
-      <c r="G67" s="83" t="s">
+      <c r="G67" s="78" t="s">
         <v>841</v>
       </c>
-      <c r="H67" s="83" t="s">
+      <c r="H67" s="78" t="s">
         <v>836</v>
       </c>
-      <c r="I67" s="58" t="s">
+      <c r="I67" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="81">
+      <c r="A68" s="76">
         <v>3</v>
       </c>
-      <c r="B68" s="82">
+      <c r="B68" s="77">
         <v>3</v>
       </c>
-      <c r="C68" s="83" t="s">
+      <c r="C68" s="78" t="s">
         <v>842</v>
       </c>
-      <c r="D68" s="83" t="s">
+      <c r="D68" s="78" t="s">
         <v>838</v>
       </c>
-      <c r="E68" s="83" t="s">
+      <c r="E68" s="78" t="s">
         <v>843</v>
       </c>
-      <c r="F68" s="83" t="s">
+      <c r="F68" s="78" t="s">
         <v>844</v>
       </c>
-      <c r="G68" s="83" t="s">
+      <c r="G68" s="78" t="s">
         <v>845</v>
       </c>
-      <c r="H68" s="83" t="s">
+      <c r="H68" s="78" t="s">
         <v>846</v>
       </c>
-      <c r="I68" s="58" t="s">
+      <c r="I68" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="81">
+      <c r="A69" s="76">
         <v>4</v>
       </c>
-      <c r="B69" s="82">
+      <c r="B69" s="77">
         <v>4</v>
       </c>
-      <c r="C69" s="83" t="s">
+      <c r="C69" s="78" t="s">
         <v>847</v>
       </c>
-      <c r="D69" s="83" t="s">
+      <c r="D69" s="78" t="s">
         <v>838</v>
       </c>
-      <c r="E69" s="83" t="s">
+      <c r="E69" s="78" t="s">
         <v>848</v>
       </c>
-      <c r="F69" s="83" t="s">
+      <c r="F69" s="78" t="s">
         <v>849</v>
       </c>
-      <c r="G69" s="83" t="s">
+      <c r="G69" s="78" t="s">
         <v>850</v>
       </c>
-      <c r="H69" s="83" t="s">
+      <c r="H69" s="78" t="s">
         <v>836</v>
       </c>
-      <c r="I69" s="58" t="s">
+      <c r="I69" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="81">
+      <c r="A70" s="76">
         <v>5</v>
       </c>
-      <c r="B70" s="82">
+      <c r="B70" s="77">
         <v>5</v>
       </c>
-      <c r="C70" s="83" t="s">
+      <c r="C70" s="78" t="s">
         <v>851</v>
       </c>
-      <c r="D70" s="83" t="s">
+      <c r="D70" s="78" t="s">
         <v>838</v>
       </c>
-      <c r="E70" s="83" t="s">
+      <c r="E70" s="78" t="s">
         <v>852</v>
       </c>
-      <c r="F70" s="83" t="s">
+      <c r="F70" s="78" t="s">
         <v>853</v>
       </c>
-      <c r="G70" s="83" t="s">
+      <c r="G70" s="78" t="s">
         <v>854</v>
       </c>
-      <c r="H70" s="83" t="s">
+      <c r="H70" s="78" t="s">
         <v>836</v>
       </c>
-      <c r="I70" s="58" t="s">
+      <c r="I70" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A71" s="81">
+      <c r="A71" s="76">
         <v>6</v>
       </c>
-      <c r="B71" s="82">
+      <c r="B71" s="77">
         <v>6</v>
       </c>
-      <c r="C71" s="83" t="s">
+      <c r="C71" s="78" t="s">
         <v>855</v>
       </c>
-      <c r="D71" s="83" t="s">
+      <c r="D71" s="78" t="s">
         <v>838</v>
       </c>
-      <c r="E71" s="83" t="s">
+      <c r="E71" s="78" t="s">
         <v>856</v>
       </c>
-      <c r="F71" s="83" t="s">
+      <c r="F71" s="78" t="s">
         <v>857</v>
       </c>
-      <c r="G71" s="83" t="s">
+      <c r="G71" s="78" t="s">
         <v>858</v>
       </c>
-      <c r="H71" s="83" t="s">
+      <c r="H71" s="78" t="s">
         <v>836</v>
       </c>
-      <c r="I71" s="58" t="s">
+      <c r="I71" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="81">
+      <c r="A72" s="76">
         <v>7</v>
       </c>
-      <c r="B72" s="82">
+      <c r="B72" s="77">
         <v>7</v>
       </c>
-      <c r="C72" s="83" t="s">
+      <c r="C72" s="78" t="s">
         <v>859</v>
       </c>
-      <c r="D72" s="83" t="s">
+      <c r="D72" s="78" t="s">
         <v>838</v>
       </c>
-      <c r="E72" s="83" t="s">
+      <c r="E72" s="78" t="s">
         <v>860</v>
       </c>
-      <c r="F72" s="83" t="s">
+      <c r="F72" s="78" t="s">
         <v>683</v>
       </c>
-      <c r="G72" s="83" t="s">
+      <c r="G72" s="78" t="s">
         <v>861</v>
       </c>
-      <c r="H72" s="83" t="s">
+      <c r="H72" s="78" t="s">
         <v>836</v>
       </c>
-      <c r="I72" s="58" t="s">
+      <c r="I72" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="81">
+      <c r="A73" s="76">
         <v>8</v>
       </c>
-      <c r="B73" s="82">
+      <c r="B73" s="77">
         <v>8</v>
       </c>
-      <c r="C73" s="83" t="s">
+      <c r="C73" s="78" t="s">
         <v>862</v>
       </c>
-      <c r="D73" s="83" t="s">
+      <c r="D73" s="78" t="s">
         <v>838</v>
       </c>
-      <c r="E73" s="83" t="s">
+      <c r="E73" s="78" t="s">
         <v>863</v>
       </c>
-      <c r="F73" s="83" t="s">
+      <c r="F73" s="78" t="s">
         <v>864</v>
       </c>
-      <c r="G73" s="83" t="s">
+      <c r="G73" s="78" t="s">
         <v>865</v>
       </c>
-      <c r="H73" s="83" t="s">
+      <c r="H73" s="78" t="s">
         <v>846</v>
       </c>
-      <c r="I73" s="58" t="s">
+      <c r="I73" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="81"/>
-      <c r="B74" s="82">
+      <c r="A74" s="76"/>
+      <c r="B74" s="77">
         <v>9</v>
       </c>
-      <c r="C74" s="83" t="s">
+      <c r="C74" s="78" t="s">
         <v>866</v>
       </c>
-      <c r="D74" s="83" t="s">
+      <c r="D74" s="78" t="s">
         <v>838</v>
       </c>
-      <c r="E74" s="83" t="s">
+      <c r="E74" s="78" t="s">
         <v>867</v>
       </c>
-      <c r="F74" s="83" t="s">
+      <c r="F74" s="78" t="s">
         <v>868</v>
       </c>
-      <c r="G74" s="83" t="s">
+      <c r="G74" s="78" t="s">
         <v>841</v>
       </c>
-      <c r="H74" s="83" t="s">
+      <c r="H74" s="78" t="s">
         <v>869</v>
       </c>
-      <c r="I74" s="69" t="s">
+      <c r="I74" s="64" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A75" s="81">
+      <c r="A75" s="76">
         <v>10</v>
       </c>
-      <c r="B75" s="82">
+      <c r="B75" s="77">
         <v>10</v>
       </c>
-      <c r="C75" s="83" t="s">
+      <c r="C75" s="78" t="s">
         <v>870</v>
       </c>
-      <c r="D75" s="83" t="s">
+      <c r="D75" s="78" t="s">
         <v>838</v>
       </c>
-      <c r="E75" s="83" t="s">
+      <c r="E75" s="78" t="s">
         <v>871</v>
       </c>
-      <c r="F75" s="83" t="s">
+      <c r="F75" s="78" t="s">
         <v>683</v>
       </c>
-      <c r="G75" s="83" t="s">
+      <c r="G75" s="78" t="s">
         <v>872</v>
       </c>
-      <c r="H75" s="83" t="s">
+      <c r="H75" s="78" t="s">
         <v>873</v>
       </c>
-      <c r="I75" s="58" t="s">
+      <c r="I75" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="81">
+      <c r="A76" s="76">
         <v>11</v>
       </c>
-      <c r="B76" s="82">
+      <c r="B76" s="77">
         <v>11</v>
       </c>
-      <c r="C76" s="83" t="s">
+      <c r="C76" s="78" t="s">
         <v>874</v>
       </c>
-      <c r="D76" s="83" t="s">
+      <c r="D76" s="78" t="s">
         <v>838</v>
       </c>
-      <c r="E76" s="83" t="s">
+      <c r="E76" s="78" t="s">
         <v>875</v>
       </c>
-      <c r="F76" s="83" t="s">
+      <c r="F76" s="78" t="s">
         <v>876</v>
       </c>
-      <c r="G76" s="83" t="s">
+      <c r="G76" s="78" t="s">
         <v>877</v>
       </c>
-      <c r="H76" s="83" t="s">
+      <c r="H76" s="78" t="s">
         <v>846</v>
       </c>
-      <c r="I76" s="58" t="s">
+      <c r="I76" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="81">
+      <c r="A77" s="76">
         <v>12</v>
       </c>
-      <c r="B77" s="82">
+      <c r="B77" s="77">
         <v>12</v>
       </c>
-      <c r="C77" s="83" t="s">
+      <c r="C77" s="78" t="s">
         <v>878</v>
       </c>
-      <c r="D77" s="83" t="s">
+      <c r="D77" s="78" t="s">
         <v>879</v>
       </c>
-      <c r="E77" s="83" t="s">
+      <c r="E77" s="78" t="s">
         <v>880</v>
       </c>
-      <c r="F77" s="83" t="s">
+      <c r="F77" s="78" t="s">
         <v>683</v>
       </c>
-      <c r="G77" s="83" t="s">
+      <c r="G77" s="78" t="s">
         <v>881</v>
       </c>
-      <c r="H77" s="83" t="s">
+      <c r="H77" s="78" t="s">
         <v>882</v>
       </c>
-      <c r="I77" s="69" t="s">
+      <c r="I77" s="64" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="84">
+      <c r="A78" s="79">
         <v>13</v>
       </c>
-      <c r="B78" s="85">
+      <c r="B78" s="80">
         <v>13</v>
       </c>
-      <c r="C78" s="86" t="s">
+      <c r="C78" s="81" t="s">
         <v>883</v>
       </c>
-      <c r="D78" s="86" t="s">
+      <c r="D78" s="81" t="s">
         <v>884</v>
       </c>
-      <c r="E78" s="86" t="s">
+      <c r="E78" s="81" t="s">
         <v>885</v>
       </c>
-      <c r="F78" s="86" t="s">
+      <c r="F78" s="81" t="s">
         <v>683</v>
       </c>
-      <c r="G78" s="86" t="s">
+      <c r="G78" s="81" t="s">
         <v>886</v>
       </c>
-      <c r="H78" s="86" t="s">
+      <c r="H78" s="81" t="s">
         <v>836</v>
       </c>
-      <c r="I78" s="58" t="s">
+      <c r="I78" s="53" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="80" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="47" t="s">
+      <c r="A80" s="111" t="s">
         <v>887</v>
       </c>
-      <c r="B80" s="48"/>
-      <c r="C80" s="49"/>
+      <c r="B80" s="112"/>
+      <c r="C80" s="113"/>
     </row>
     <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="82" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="87" t="s">
+      <c r="A82" s="82" t="s">
         <v>666</v>
       </c>
-      <c r="B82" s="88" t="s">
+      <c r="B82" s="83" t="s">
         <v>667</v>
       </c>
-      <c r="C82" s="88" t="s">
+      <c r="C82" s="83" t="s">
         <v>668</v>
       </c>
-      <c r="D82" s="88" t="s">
+      <c r="D82" s="83" t="s">
         <v>669</v>
       </c>
-      <c r="E82" s="88" t="s">
+      <c r="E82" s="83" t="s">
         <v>670</v>
       </c>
-      <c r="F82" s="88" t="s">
+      <c r="F82" s="83" t="s">
         <v>671</v>
       </c>
-      <c r="G82" s="88" t="s">
+      <c r="G82" s="83" t="s">
         <v>672</v>
       </c>
-      <c r="H82" s="88" t="s">
+      <c r="H82" s="83" t="s">
         <v>673</v>
       </c>
-      <c r="I82" s="89" t="s">
+      <c r="I82" s="84" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="93" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A83" s="90">
+    <row r="83" spans="1:9" s="88" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A83" s="85">
         <v>1</v>
       </c>
-      <c r="B83" s="91">
+      <c r="B83" s="86">
         <v>1</v>
       </c>
-      <c r="C83" s="91" t="s">
+      <c r="C83" s="86" t="s">
         <v>832</v>
       </c>
-      <c r="D83" s="91" t="s">
+      <c r="D83" s="86" t="s">
         <v>888</v>
       </c>
-      <c r="E83" s="91" t="s">
+      <c r="E83" s="86" t="s">
         <v>889</v>
       </c>
-      <c r="F83" s="91" t="s">
+      <c r="F83" s="86" t="s">
         <v>683</v>
       </c>
-      <c r="G83" s="91" t="s">
+      <c r="G83" s="86" t="s">
         <v>890</v>
       </c>
-      <c r="H83" s="91" t="s">
+      <c r="H83" s="86" t="s">
         <v>836</v>
       </c>
-      <c r="I83" s="92" t="s">
+      <c r="I83" s="87" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="93" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="94">
+    <row r="84" spans="1:9" s="88" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="89">
         <v>2</v>
       </c>
-      <c r="B84" s="95">
+      <c r="B84" s="90">
         <v>2</v>
       </c>
-      <c r="C84" s="95" t="s">
+      <c r="C84" s="90" t="s">
         <v>837</v>
       </c>
-      <c r="D84" s="95" t="s">
+      <c r="D84" s="90" t="s">
         <v>838</v>
       </c>
-      <c r="E84" s="95" t="s">
+      <c r="E84" s="90" t="s">
         <v>891</v>
       </c>
-      <c r="F84" s="95" t="s">
+      <c r="F84" s="90" t="s">
         <v>892</v>
       </c>
-      <c r="G84" s="95" t="s">
+      <c r="G84" s="90" t="s">
         <v>893</v>
       </c>
-      <c r="H84" s="95" t="s">
+      <c r="H84" s="90" t="s">
         <v>836</v>
       </c>
-      <c r="I84" s="96" t="s">
+      <c r="I84" s="91" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="93" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A85" s="94">
+    <row r="85" spans="1:9" s="88" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A85" s="89">
         <v>3</v>
       </c>
-      <c r="B85" s="95">
+      <c r="B85" s="90">
         <v>3</v>
       </c>
-      <c r="C85" s="95" t="s">
+      <c r="C85" s="90" t="s">
         <v>842</v>
       </c>
-      <c r="D85" s="95" t="s">
+      <c r="D85" s="90" t="s">
         <v>838</v>
       </c>
-      <c r="E85" s="95" t="s">
+      <c r="E85" s="90" t="s">
         <v>894</v>
       </c>
-      <c r="F85" s="95" t="s">
+      <c r="F85" s="90" t="s">
         <v>895</v>
       </c>
-      <c r="G85" s="95" t="s">
+      <c r="G85" s="90" t="s">
         <v>896</v>
       </c>
-      <c r="H85" s="95" t="s">
+      <c r="H85" s="90" t="s">
         <v>846</v>
       </c>
-      <c r="I85" s="96" t="s">
+      <c r="I85" s="91" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="93" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="94">
+    <row r="86" spans="1:9" s="88" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="89">
         <v>4</v>
       </c>
-      <c r="B86" s="95">
+      <c r="B86" s="90">
         <v>4</v>
       </c>
-      <c r="C86" s="95" t="s">
+      <c r="C86" s="90" t="s">
         <v>897</v>
       </c>
-      <c r="D86" s="95" t="s">
+      <c r="D86" s="90" t="s">
         <v>838</v>
       </c>
-      <c r="E86" s="95" t="s">
+      <c r="E86" s="90" t="s">
         <v>898</v>
       </c>
-      <c r="F86" s="95" t="s">
+      <c r="F86" s="90" t="s">
         <v>683</v>
       </c>
-      <c r="G86" s="95" t="s">
+      <c r="G86" s="90" t="s">
         <v>899</v>
       </c>
-      <c r="H86" s="95" t="s">
+      <c r="H86" s="90" t="s">
         <v>836</v>
       </c>
-      <c r="I86" s="96" t="s">
+      <c r="I86" s="91" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="93" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="94">
+    <row r="87" spans="1:9" s="88" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="89">
         <v>5</v>
       </c>
-      <c r="B87" s="95">
+      <c r="B87" s="90">
         <v>5</v>
       </c>
-      <c r="C87" s="95" t="s">
+      <c r="C87" s="90" t="s">
         <v>900</v>
       </c>
-      <c r="D87" s="95" t="s">
+      <c r="D87" s="90" t="s">
         <v>901</v>
       </c>
-      <c r="E87" s="95" t="s">
+      <c r="E87" s="90" t="s">
         <v>902</v>
       </c>
-      <c r="F87" s="95" t="s">
+      <c r="F87" s="90" t="s">
         <v>683</v>
       </c>
-      <c r="G87" s="95" t="s">
+      <c r="G87" s="90" t="s">
         <v>903</v>
       </c>
-      <c r="H87" s="95" t="s">
+      <c r="H87" s="90" t="s">
         <v>836</v>
       </c>
-      <c r="I87" s="96" t="s">
+      <c r="I87" s="91" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="93" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A88" s="94">
+    <row r="88" spans="1:9" s="88" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A88" s="89">
         <v>6</v>
       </c>
-      <c r="B88" s="95">
+      <c r="B88" s="90">
         <v>6</v>
       </c>
-      <c r="C88" s="95" t="s">
+      <c r="C88" s="90" t="s">
         <v>904</v>
       </c>
-      <c r="D88" s="95" t="s">
+      <c r="D88" s="90" t="s">
         <v>905</v>
       </c>
-      <c r="E88" s="95" t="s">
+      <c r="E88" s="90" t="s">
         <v>906</v>
       </c>
-      <c r="F88" s="95" t="s">
+      <c r="F88" s="90" t="s">
         <v>907</v>
       </c>
-      <c r="G88" s="95" t="s">
+      <c r="G88" s="90" t="s">
         <v>908</v>
       </c>
-      <c r="H88" s="95" t="s">
+      <c r="H88" s="90" t="s">
         <v>836</v>
       </c>
-      <c r="I88" s="96" t="s">
+      <c r="I88" s="91" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="93" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A89" s="94">
+    <row r="89" spans="1:9" s="88" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A89" s="89">
         <v>7</v>
       </c>
-      <c r="B89" s="95">
+      <c r="B89" s="90">
         <v>7</v>
       </c>
-      <c r="C89" s="95" t="s">
+      <c r="C89" s="90" t="s">
         <v>909</v>
       </c>
-      <c r="D89" s="95" t="s">
+      <c r="D89" s="90" t="s">
         <v>901</v>
       </c>
-      <c r="E89" s="95" t="s">
+      <c r="E89" s="90" t="s">
         <v>910</v>
       </c>
-      <c r="F89" s="95" t="s">
+      <c r="F89" s="90" t="s">
         <v>911</v>
       </c>
-      <c r="G89" s="95" t="s">
+      <c r="G89" s="90" t="s">
         <v>912</v>
       </c>
-      <c r="H89" s="95" t="s">
+      <c r="H89" s="90" t="s">
         <v>836</v>
       </c>
-      <c r="I89" s="96" t="s">
+      <c r="I89" s="91" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="93" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="94">
+    <row r="90" spans="1:9" s="88" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="89">
         <v>8</v>
       </c>
-      <c r="B90" s="95">
+      <c r="B90" s="90">
         <v>8</v>
       </c>
-      <c r="C90" s="95" t="s">
+      <c r="C90" s="90" t="s">
         <v>913</v>
       </c>
-      <c r="D90" s="95" t="s">
+      <c r="D90" s="90" t="s">
         <v>914</v>
       </c>
-      <c r="E90" s="95" t="s">
+      <c r="E90" s="90" t="s">
         <v>915</v>
       </c>
-      <c r="F90" s="95" t="s">
+      <c r="F90" s="90" t="s">
         <v>683</v>
       </c>
-      <c r="G90" s="95" t="s">
+      <c r="G90" s="90" t="s">
         <v>916</v>
       </c>
-      <c r="H90" s="95" t="s">
+      <c r="H90" s="90" t="s">
         <v>836</v>
       </c>
-      <c r="I90" s="96" t="s">
+      <c r="I90" s="91" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="93" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="94">
+    <row r="91" spans="1:9" s="88" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A91" s="89">
         <v>9</v>
       </c>
-      <c r="B91" s="95">
+      <c r="B91" s="90">
         <v>9</v>
       </c>
-      <c r="C91" s="95" t="s">
+      <c r="C91" s="90" t="s">
         <v>917</v>
       </c>
-      <c r="D91" s="95" t="s">
+      <c r="D91" s="90" t="s">
         <v>914</v>
       </c>
-      <c r="E91" s="95" t="s">
+      <c r="E91" s="90" t="s">
         <v>918</v>
       </c>
-      <c r="F91" s="95" t="s">
+      <c r="F91" s="90" t="s">
         <v>919</v>
       </c>
-      <c r="G91" s="95" t="s">
+      <c r="G91" s="90" t="s">
         <v>920</v>
       </c>
-      <c r="H91" s="95" t="s">
+      <c r="H91" s="90" t="s">
         <v>836</v>
       </c>
-      <c r="I91" s="96" t="s">
+      <c r="I91" s="91" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="93" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="94">
+    <row r="92" spans="1:9" s="88" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="89">
         <v>10</v>
       </c>
-      <c r="B92" s="95">
+      <c r="B92" s="90">
         <v>10</v>
       </c>
-      <c r="C92" s="95" t="s">
+      <c r="C92" s="90" t="s">
         <v>921</v>
       </c>
-      <c r="D92" s="95" t="s">
+      <c r="D92" s="90" t="s">
         <v>901</v>
       </c>
-      <c r="E92" s="95" t="s">
+      <c r="E92" s="90" t="s">
         <v>922</v>
       </c>
-      <c r="F92" s="95" t="s">
+      <c r="F92" s="90" t="s">
         <v>683</v>
       </c>
-      <c r="G92" s="95" t="s">
+      <c r="G92" s="90" t="s">
         <v>923</v>
       </c>
-      <c r="H92" s="95" t="s">
+      <c r="H92" s="90" t="s">
         <v>836</v>
       </c>
-      <c r="I92" s="96" t="s">
+      <c r="I92" s="91" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="93" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A93" s="94">
+    <row r="93" spans="1:9" s="88" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A93" s="89">
         <v>11</v>
       </c>
-      <c r="B93" s="95">
+      <c r="B93" s="90">
         <v>11</v>
       </c>
-      <c r="C93" s="95" t="s">
+      <c r="C93" s="90" t="s">
         <v>924</v>
       </c>
-      <c r="D93" s="95" t="s">
+      <c r="D93" s="90" t="s">
         <v>905</v>
       </c>
-      <c r="E93" s="95" t="s">
+      <c r="E93" s="90" t="s">
         <v>925</v>
       </c>
-      <c r="F93" s="95" t="s">
+      <c r="F93" s="90" t="s">
         <v>926</v>
       </c>
-      <c r="G93" s="95" t="s">
+      <c r="G93" s="90" t="s">
         <v>927</v>
       </c>
-      <c r="H93" s="95" t="s">
+      <c r="H93" s="90" t="s">
         <v>928</v>
       </c>
-      <c r="I93" s="97" t="s">
+      <c r="I93" s="92" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="93" customFormat="1" ht="63.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="94">
+    <row r="94" spans="1:9" s="88" customFormat="1" ht="63.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="89">
         <v>12</v>
       </c>
-      <c r="B94" s="95">
+      <c r="B94" s="90">
         <v>12</v>
       </c>
-      <c r="C94" s="95" t="s">
+      <c r="C94" s="90" t="s">
         <v>929</v>
       </c>
-      <c r="D94" s="95" t="s">
+      <c r="D94" s="90" t="s">
         <v>914</v>
       </c>
-      <c r="E94" s="95" t="s">
+      <c r="E94" s="90" t="s">
         <v>930</v>
       </c>
-      <c r="F94" s="95" t="s">
+      <c r="F94" s="90" t="s">
         <v>931</v>
       </c>
-      <c r="G94" s="95" t="s">
+      <c r="G94" s="90" t="s">
         <v>932</v>
       </c>
-      <c r="H94" s="95" t="s">
+      <c r="H94" s="90" t="s">
         <v>933</v>
       </c>
-      <c r="I94" s="97" t="s">
+      <c r="I94" s="92" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="93" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A95" s="94">
+    <row r="95" spans="1:9" s="88" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="89">
         <v>13</v>
       </c>
-      <c r="B95" s="95">
+      <c r="B95" s="90">
         <v>13</v>
       </c>
-      <c r="C95" s="95" t="s">
+      <c r="C95" s="90" t="s">
         <v>934</v>
       </c>
-      <c r="D95" s="95" t="s">
+      <c r="D95" s="90" t="s">
         <v>935</v>
       </c>
-      <c r="E95" s="95" t="s">
+      <c r="E95" s="90" t="s">
         <v>936</v>
       </c>
-      <c r="F95" s="95" t="s">
+      <c r="F95" s="90" t="s">
         <v>683</v>
       </c>
-      <c r="G95" s="95" t="s">
+      <c r="G95" s="90" t="s">
         <v>937</v>
       </c>
-      <c r="H95" s="95" t="s">
+      <c r="H95" s="90" t="s">
         <v>938</v>
       </c>
-      <c r="I95" s="97" t="s">
+      <c r="I95" s="92" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="93" customFormat="1" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="98">
+    <row r="96" spans="1:9" s="88" customFormat="1" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="93">
         <v>14</v>
       </c>
-      <c r="B96" s="99">
+      <c r="B96" s="94">
         <v>14</v>
       </c>
-      <c r="C96" s="99" t="s">
+      <c r="C96" s="94" t="s">
         <v>939</v>
       </c>
-      <c r="D96" s="99" t="s">
+      <c r="D96" s="94" t="s">
         <v>905</v>
       </c>
-      <c r="E96" s="99" t="s">
+      <c r="E96" s="94" t="s">
         <v>940</v>
       </c>
-      <c r="F96" s="99" t="s">
+      <c r="F96" s="94" t="s">
         <v>941</v>
       </c>
-      <c r="G96" s="99" t="s">
+      <c r="G96" s="94" t="s">
         <v>942</v>
       </c>
-      <c r="H96" s="99" t="s">
+      <c r="H96" s="94" t="s">
         <v>943</v>
       </c>
-      <c r="I96" s="100" t="s">
+      <c r="I96" s="95" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="98" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="47" t="s">
+      <c r="A98" s="111" t="s">
         <v>944</v>
       </c>
-      <c r="B98" s="48"/>
-      <c r="C98" s="49"/>
+      <c r="B98" s="112"/>
+      <c r="C98" s="113"/>
     </row>
     <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="100" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="87" t="s">
+      <c r="A100" s="82" t="s">
         <v>666</v>
       </c>
-      <c r="B100" s="88" t="s">
+      <c r="B100" s="83" t="s">
         <v>667</v>
       </c>
-      <c r="C100" s="88" t="s">
+      <c r="C100" s="83" t="s">
         <v>668</v>
       </c>
-      <c r="D100" s="88" t="s">
+      <c r="D100" s="83" t="s">
         <v>669</v>
       </c>
-      <c r="E100" s="88" t="s">
+      <c r="E100" s="83" t="s">
         <v>670</v>
       </c>
-      <c r="F100" s="88" t="s">
+      <c r="F100" s="83" t="s">
         <v>671</v>
       </c>
-      <c r="G100" s="88" t="s">
+      <c r="G100" s="83" t="s">
         <v>672</v>
       </c>
-      <c r="H100" s="88" t="s">
+      <c r="H100" s="83" t="s">
         <v>673</v>
       </c>
-      <c r="I100" s="89" t="s">
+      <c r="I100" s="84" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="96" x14ac:dyDescent="0.3">
-      <c r="A101" s="101">
+      <c r="A101" s="96">
         <v>1</v>
       </c>
-      <c r="B101" s="102">
+      <c r="B101" s="97">
         <v>1</v>
       </c>
-      <c r="C101" s="102" t="s">
+      <c r="C101" s="97" t="s">
         <v>945</v>
       </c>
-      <c r="D101" s="102" t="s">
+      <c r="D101" s="97" t="s">
         <v>946</v>
       </c>
-      <c r="E101" s="102" t="s">
+      <c r="E101" s="97" t="s">
         <v>947</v>
       </c>
-      <c r="F101" s="102" t="s">
+      <c r="F101" s="97" t="s">
         <v>683</v>
       </c>
-      <c r="G101" s="102" t="s">
+      <c r="G101" s="97" t="s">
         <v>948</v>
       </c>
-      <c r="H101" s="102" t="s">
+      <c r="H101" s="97" t="s">
         <v>949</v>
       </c>
-      <c r="I101" s="96" t="s">
+      <c r="I101" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="103">
+      <c r="A102" s="108">
         <v>2</v>
       </c>
-      <c r="B102" s="104">
+      <c r="B102" s="109">
         <v>2</v>
       </c>
-      <c r="C102" s="104" t="s">
+      <c r="C102" s="109" t="s">
         <v>950</v>
       </c>
-      <c r="D102" s="104" t="s">
+      <c r="D102" s="109" t="s">
         <v>951</v>
       </c>
-      <c r="E102" s="104" t="s">
+      <c r="E102" s="109" t="s">
         <v>952</v>
       </c>
-      <c r="F102" s="105" t="s">
+      <c r="F102" s="98" t="s">
         <v>953</v>
       </c>
-      <c r="G102" s="104" t="s">
+      <c r="G102" s="109" t="s">
         <v>954</v>
       </c>
-      <c r="H102" s="104" t="s">
+      <c r="H102" s="109" t="s">
         <v>955</v>
       </c>
-      <c r="I102" s="106" t="s">
+      <c r="I102" s="110" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="103"/>
-      <c r="B103" s="104"/>
-      <c r="C103" s="104"/>
-      <c r="D103" s="104"/>
-      <c r="E103" s="104"/>
-      <c r="F103" s="105" t="s">
+      <c r="A103" s="108"/>
+      <c r="B103" s="109"/>
+      <c r="C103" s="109"/>
+      <c r="D103" s="109"/>
+      <c r="E103" s="109"/>
+      <c r="F103" s="98" t="s">
         <v>956</v>
       </c>
-      <c r="G103" s="104"/>
-      <c r="H103" s="104"/>
-      <c r="I103" s="106"/>
+      <c r="G103" s="109"/>
+      <c r="H103" s="109"/>
+      <c r="I103" s="110"/>
     </row>
     <row r="104" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="103">
+      <c r="A104" s="108">
         <v>3</v>
       </c>
-      <c r="B104" s="104">
+      <c r="B104" s="109">
         <v>3</v>
       </c>
-      <c r="C104" s="104" t="s">
+      <c r="C104" s="109" t="s">
         <v>957</v>
       </c>
-      <c r="D104" s="104" t="s">
+      <c r="D104" s="109" t="s">
         <v>951</v>
       </c>
-      <c r="E104" s="104" t="s">
+      <c r="E104" s="109" t="s">
         <v>958</v>
       </c>
-      <c r="F104" s="105" t="s">
+      <c r="F104" s="98" t="s">
         <v>959</v>
       </c>
-      <c r="G104" s="104" t="s">
+      <c r="G104" s="109" t="s">
         <v>960</v>
       </c>
-      <c r="H104" s="104" t="s">
+      <c r="H104" s="109" t="s">
         <v>955</v>
       </c>
-      <c r="I104" s="106" t="s">
+      <c r="I104" s="110" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A105" s="103"/>
-      <c r="B105" s="104"/>
-      <c r="C105" s="104"/>
-      <c r="D105" s="104"/>
-      <c r="E105" s="104"/>
-      <c r="F105" s="105" t="s">
+      <c r="A105" s="108"/>
+      <c r="B105" s="109"/>
+      <c r="C105" s="109"/>
+      <c r="D105" s="109"/>
+      <c r="E105" s="109"/>
+      <c r="F105" s="98" t="s">
         <v>961</v>
       </c>
-      <c r="G105" s="104"/>
-      <c r="H105" s="104"/>
-      <c r="I105" s="106"/>
+      <c r="G105" s="109"/>
+      <c r="H105" s="109"/>
+      <c r="I105" s="110"/>
     </row>
     <row r="106" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A106" s="107">
+      <c r="A106" s="99">
         <v>4</v>
       </c>
-      <c r="B106" s="105">
+      <c r="B106" s="98">
         <v>4</v>
       </c>
-      <c r="C106" s="105" t="s">
+      <c r="C106" s="98" t="s">
         <v>962</v>
       </c>
-      <c r="D106" s="105" t="s">
+      <c r="D106" s="98" t="s">
         <v>951</v>
       </c>
-      <c r="E106" s="105" t="s">
+      <c r="E106" s="98" t="s">
         <v>963</v>
       </c>
-      <c r="F106" s="105" t="s">
+      <c r="F106" s="98" t="s">
         <v>964</v>
       </c>
-      <c r="G106" s="105" t="s">
+      <c r="G106" s="98" t="s">
         <v>965</v>
       </c>
-      <c r="H106" s="105" t="s">
+      <c r="H106" s="98" t="s">
         <v>966</v>
       </c>
-      <c r="I106" s="108" t="s">
+      <c r="I106" s="100" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A107" s="107">
+      <c r="A107" s="99">
         <v>5</v>
       </c>
-      <c r="B107" s="105">
+      <c r="B107" s="98">
         <v>5</v>
       </c>
-      <c r="C107" s="105" t="s">
+      <c r="C107" s="98" t="s">
         <v>967</v>
       </c>
-      <c r="D107" s="105" t="s">
+      <c r="D107" s="98" t="s">
         <v>951</v>
       </c>
-      <c r="E107" s="105" t="s">
+      <c r="E107" s="98" t="s">
         <v>968</v>
       </c>
-      <c r="F107" s="105" t="s">
+      <c r="F107" s="98" t="s">
         <v>683</v>
       </c>
-      <c r="G107" s="105" t="s">
+      <c r="G107" s="98" t="s">
         <v>969</v>
       </c>
-      <c r="H107" s="105" t="s">
+      <c r="H107" s="98" t="s">
         <v>970</v>
       </c>
-      <c r="I107" s="96" t="s">
+      <c r="I107" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="107">
+      <c r="A108" s="99">
         <v>6</v>
       </c>
-      <c r="B108" s="105">
+      <c r="B108" s="98">
         <v>6</v>
       </c>
-      <c r="C108" s="105" t="s">
+      <c r="C108" s="98" t="s">
         <v>971</v>
       </c>
-      <c r="D108" s="105" t="s">
+      <c r="D108" s="98" t="s">
         <v>951</v>
       </c>
-      <c r="E108" s="105" t="s">
+      <c r="E108" s="98" t="s">
         <v>972</v>
       </c>
-      <c r="F108" s="105" t="s">
+      <c r="F108" s="98" t="s">
         <v>683</v>
       </c>
-      <c r="G108" s="105" t="s">
+      <c r="G108" s="98" t="s">
         <v>973</v>
       </c>
-      <c r="H108" s="105" t="s">
+      <c r="H108" s="98" t="s">
         <v>974</v>
       </c>
-      <c r="I108" s="96" t="s">
+      <c r="I108" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A109" s="107">
+      <c r="A109" s="99">
         <v>7</v>
       </c>
-      <c r="B109" s="105">
+      <c r="B109" s="98">
         <v>7</v>
       </c>
-      <c r="C109" s="105" t="s">
+      <c r="C109" s="98" t="s">
         <v>975</v>
       </c>
-      <c r="D109" s="105" t="s">
+      <c r="D109" s="98" t="s">
         <v>951</v>
       </c>
-      <c r="E109" s="105" t="s">
+      <c r="E109" s="98" t="s">
         <v>976</v>
       </c>
-      <c r="F109" s="105" t="s">
+      <c r="F109" s="98" t="s">
         <v>683</v>
       </c>
-      <c r="G109" s="105" t="s">
+      <c r="G109" s="98" t="s">
         <v>977</v>
       </c>
-      <c r="H109" s="105" t="s">
+      <c r="H109" s="98" t="s">
         <v>978</v>
       </c>
-      <c r="I109" s="96" t="s">
+      <c r="I109" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="107">
+      <c r="A110" s="99">
         <v>8</v>
       </c>
-      <c r="B110" s="105">
+      <c r="B110" s="98">
         <v>8</v>
       </c>
-      <c r="C110" s="105" t="s">
+      <c r="C110" s="98" t="s">
         <v>979</v>
       </c>
-      <c r="D110" s="105" t="s">
+      <c r="D110" s="98" t="s">
         <v>951</v>
       </c>
-      <c r="E110" s="105" t="s">
+      <c r="E110" s="98" t="s">
         <v>980</v>
       </c>
-      <c r="F110" s="105" t="s">
+      <c r="F110" s="98" t="s">
         <v>683</v>
       </c>
-      <c r="G110" s="105" t="s">
+      <c r="G110" s="98" t="s">
         <v>981</v>
       </c>
-      <c r="H110" s="105" t="s">
+      <c r="H110" s="98" t="s">
         <v>982</v>
       </c>
-      <c r="I110" s="96" t="s">
+      <c r="I110" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A111" s="107">
+      <c r="A111" s="99">
         <v>9</v>
       </c>
-      <c r="B111" s="105">
+      <c r="B111" s="98">
         <v>9</v>
       </c>
-      <c r="C111" s="105" t="s">
+      <c r="C111" s="98" t="s">
         <v>983</v>
       </c>
-      <c r="D111" s="105" t="s">
+      <c r="D111" s="98" t="s">
         <v>951</v>
       </c>
-      <c r="E111" s="105" t="s">
+      <c r="E111" s="98" t="s">
         <v>984</v>
       </c>
-      <c r="F111" s="105" t="s">
+      <c r="F111" s="98" t="s">
         <v>683</v>
       </c>
-      <c r="G111" s="105" t="s">
+      <c r="G111" s="98" t="s">
         <v>985</v>
       </c>
-      <c r="H111" s="105" t="s">
+      <c r="H111" s="98" t="s">
         <v>986</v>
       </c>
-      <c r="I111" s="96" t="s">
+      <c r="I111" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="107">
+      <c r="A112" s="99">
         <v>10</v>
       </c>
-      <c r="B112" s="105">
+      <c r="B112" s="98">
         <v>10</v>
       </c>
-      <c r="C112" s="105" t="s">
+      <c r="C112" s="98" t="s">
         <v>550</v>
       </c>
-      <c r="D112" s="105" t="s">
+      <c r="D112" s="98" t="s">
         <v>951</v>
       </c>
-      <c r="E112" s="105" t="s">
+      <c r="E112" s="98" t="s">
         <v>987</v>
       </c>
-      <c r="F112" s="105" t="s">
+      <c r="F112" s="98" t="s">
         <v>683</v>
       </c>
-      <c r="G112" s="105" t="s">
+      <c r="G112" s="98" t="s">
         <v>988</v>
       </c>
-      <c r="H112" s="105" t="s">
+      <c r="H112" s="98" t="s">
         <v>989</v>
       </c>
-      <c r="I112" s="96" t="s">
+      <c r="I112" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A113" s="107">
+      <c r="A113" s="99">
         <v>11</v>
       </c>
-      <c r="B113" s="105">
+      <c r="B113" s="98">
         <v>11</v>
       </c>
-      <c r="C113" s="105" t="s">
+      <c r="C113" s="98" t="s">
         <v>990</v>
       </c>
-      <c r="D113" s="105" t="s">
+      <c r="D113" s="98" t="s">
         <v>951</v>
       </c>
-      <c r="E113" s="105" t="s">
+      <c r="E113" s="98" t="s">
         <v>991</v>
       </c>
-      <c r="F113" s="105" t="s">
+      <c r="F113" s="98" t="s">
         <v>683</v>
       </c>
-      <c r="G113" s="105" t="s">
+      <c r="G113" s="98" t="s">
         <v>992</v>
       </c>
-      <c r="H113" s="105" t="s">
+      <c r="H113" s="98" t="s">
         <v>993</v>
       </c>
-      <c r="I113" s="96" t="s">
+      <c r="I113" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A114" s="107">
+      <c r="A114" s="99">
         <v>12</v>
       </c>
-      <c r="B114" s="105">
+      <c r="B114" s="98">
         <v>12</v>
       </c>
-      <c r="C114" s="105" t="s">
+      <c r="C114" s="98" t="s">
         <v>994</v>
       </c>
-      <c r="D114" s="105" t="s">
+      <c r="D114" s="98" t="s">
         <v>951</v>
       </c>
-      <c r="E114" s="105" t="s">
+      <c r="E114" s="98" t="s">
         <v>995</v>
       </c>
-      <c r="F114" s="105" t="s">
+      <c r="F114" s="98" t="s">
         <v>683</v>
       </c>
-      <c r="G114" s="105" t="s">
+      <c r="G114" s="98" t="s">
         <v>996</v>
       </c>
-      <c r="H114" s="105" t="s">
+      <c r="H114" s="98" t="s">
         <v>997</v>
       </c>
-      <c r="I114" s="96" t="s">
+      <c r="I114" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A115" s="107">
+      <c r="A115" s="99">
         <v>13</v>
       </c>
-      <c r="B115" s="105">
+      <c r="B115" s="98">
         <v>13</v>
       </c>
-      <c r="C115" s="105" t="s">
+      <c r="C115" s="98" t="s">
         <v>998</v>
       </c>
-      <c r="D115" s="105" t="s">
+      <c r="D115" s="98" t="s">
         <v>951</v>
       </c>
-      <c r="E115" s="105" t="s">
+      <c r="E115" s="98" t="s">
         <v>999</v>
       </c>
-      <c r="F115" s="105" t="s">
+      <c r="F115" s="98" t="s">
         <v>683</v>
       </c>
-      <c r="G115" s="105" t="s">
+      <c r="G115" s="98" t="s">
         <v>1000</v>
       </c>
-      <c r="H115" s="105" t="s">
+      <c r="H115" s="98" t="s">
         <v>1001</v>
       </c>
-      <c r="I115" s="96" t="s">
+      <c r="I115" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A116" s="107">
+      <c r="A116" s="99">
         <v>14</v>
       </c>
-      <c r="B116" s="105">
+      <c r="B116" s="98">
         <v>14</v>
       </c>
-      <c r="C116" s="105" t="s">
+      <c r="C116" s="98" t="s">
         <v>1002</v>
       </c>
-      <c r="D116" s="105" t="s">
+      <c r="D116" s="98" t="s">
         <v>951</v>
       </c>
-      <c r="E116" s="105" t="s">
+      <c r="E116" s="98" t="s">
         <v>1003</v>
       </c>
-      <c r="F116" s="105" t="s">
+      <c r="F116" s="98" t="s">
         <v>683</v>
       </c>
-      <c r="G116" s="105" t="s">
+      <c r="G116" s="98" t="s">
         <v>1004</v>
       </c>
-      <c r="H116" s="105" t="s">
+      <c r="H116" s="98" t="s">
         <v>1005</v>
       </c>
-      <c r="I116" s="96" t="s">
+      <c r="I116" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A117" s="107">
+      <c r="A117" s="99">
         <v>15</v>
       </c>
-      <c r="B117" s="105">
+      <c r="B117" s="98">
         <v>15</v>
       </c>
-      <c r="C117" s="105" t="s">
+      <c r="C117" s="98" t="s">
         <v>1006</v>
       </c>
-      <c r="D117" s="105" t="s">
+      <c r="D117" s="98" t="s">
         <v>951</v>
       </c>
-      <c r="E117" s="105" t="s">
+      <c r="E117" s="98" t="s">
         <v>1007</v>
       </c>
-      <c r="F117" s="105" t="s">
+      <c r="F117" s="98" t="s">
         <v>683</v>
       </c>
-      <c r="G117" s="105" t="s">
+      <c r="G117" s="98" t="s">
         <v>1008</v>
       </c>
-      <c r="H117" s="105" t="s">
+      <c r="H117" s="98" t="s">
         <v>1009</v>
       </c>
-      <c r="I117" s="96" t="s">
+      <c r="I117" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A118" s="107">
+      <c r="A118" s="99">
         <v>16</v>
       </c>
-      <c r="B118" s="105">
+      <c r="B118" s="98">
         <v>16</v>
       </c>
-      <c r="C118" s="105" t="s">
+      <c r="C118" s="98" t="s">
         <v>1010</v>
       </c>
-      <c r="D118" s="105" t="s">
+      <c r="D118" s="98" t="s">
         <v>951</v>
       </c>
-      <c r="E118" s="105" t="s">
+      <c r="E118" s="98" t="s">
         <v>1011</v>
       </c>
-      <c r="F118" s="105" t="s">
+      <c r="F118" s="98" t="s">
         <v>683</v>
       </c>
-      <c r="G118" s="105" t="s">
+      <c r="G118" s="98" t="s">
         <v>1012</v>
       </c>
-      <c r="H118" s="105" t="s">
+      <c r="H118" s="98" t="s">
         <v>1013</v>
       </c>
-      <c r="I118" s="96" t="s">
+      <c r="I118" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A119" s="107">
+      <c r="A119" s="99">
         <v>17</v>
       </c>
-      <c r="B119" s="105">
+      <c r="B119" s="98">
         <v>17</v>
       </c>
-      <c r="C119" s="105" t="s">
+      <c r="C119" s="98" t="s">
         <v>1014</v>
       </c>
-      <c r="D119" s="105" t="s">
+      <c r="D119" s="98" t="s">
         <v>951</v>
       </c>
-      <c r="E119" s="105" t="s">
+      <c r="E119" s="98" t="s">
         <v>1015</v>
       </c>
-      <c r="F119" s="105" t="s">
+      <c r="F119" s="98" t="s">
         <v>683</v>
       </c>
-      <c r="G119" s="105" t="s">
+      <c r="G119" s="98" t="s">
         <v>1016</v>
       </c>
-      <c r="H119" s="105" t="s">
+      <c r="H119" s="98" t="s">
         <v>1017</v>
       </c>
-      <c r="I119" s="96" t="s">
+      <c r="I119" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="107">
+      <c r="A120" s="99">
         <v>18</v>
       </c>
-      <c r="B120" s="105">
+      <c r="B120" s="98">
         <v>18</v>
       </c>
-      <c r="C120" s="105" t="s">
+      <c r="C120" s="98" t="s">
         <v>1018</v>
       </c>
-      <c r="D120" s="105" t="s">
+      <c r="D120" s="98" t="s">
         <v>951</v>
       </c>
-      <c r="E120" s="105" t="s">
+      <c r="E120" s="98" t="s">
         <v>1019</v>
       </c>
-      <c r="F120" s="105" t="s">
+      <c r="F120" s="98" t="s">
         <v>683</v>
       </c>
-      <c r="G120" s="105" t="s">
+      <c r="G120" s="98" t="s">
         <v>1020</v>
       </c>
-      <c r="H120" s="105" t="s">
+      <c r="H120" s="98" t="s">
         <v>1021</v>
       </c>
-      <c r="I120" s="96" t="s">
+      <c r="I120" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A121" s="107">
+      <c r="A121" s="99">
         <v>19</v>
       </c>
-      <c r="B121" s="105">
+      <c r="B121" s="98">
         <v>19</v>
       </c>
-      <c r="C121" s="105" t="s">
+      <c r="C121" s="98" t="s">
         <v>1022</v>
       </c>
-      <c r="D121" s="105" t="s">
+      <c r="D121" s="98" t="s">
         <v>951</v>
       </c>
-      <c r="E121" s="105" t="s">
+      <c r="E121" s="98" t="s">
         <v>1023</v>
       </c>
-      <c r="F121" s="105" t="s">
+      <c r="F121" s="98" t="s">
         <v>683</v>
       </c>
-      <c r="G121" s="105" t="s">
+      <c r="G121" s="98" t="s">
         <v>1024</v>
       </c>
-      <c r="H121" s="105" t="s">
+      <c r="H121" s="98" t="s">
         <v>1025</v>
       </c>
-      <c r="I121" s="96" t="s">
+      <c r="I121" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="107">
+      <c r="A122" s="99">
         <v>20</v>
       </c>
-      <c r="B122" s="105">
+      <c r="B122" s="98">
         <v>20</v>
       </c>
-      <c r="C122" s="105" t="s">
+      <c r="C122" s="98" t="s">
         <v>1026</v>
       </c>
-      <c r="D122" s="105" t="s">
+      <c r="D122" s="98" t="s">
         <v>951</v>
       </c>
-      <c r="E122" s="105" t="s">
+      <c r="E122" s="98" t="s">
         <v>1027</v>
       </c>
-      <c r="F122" s="105" t="s">
+      <c r="F122" s="98" t="s">
         <v>683</v>
       </c>
-      <c r="G122" s="105" t="s">
+      <c r="G122" s="98" t="s">
         <v>1000</v>
       </c>
-      <c r="H122" s="105" t="s">
+      <c r="H122" s="98" t="s">
         <v>1001</v>
       </c>
-      <c r="I122" s="96" t="s">
+      <c r="I122" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A123" s="107">
+      <c r="A123" s="99">
         <v>21</v>
       </c>
-      <c r="B123" s="105">
+      <c r="B123" s="98">
         <v>21</v>
       </c>
-      <c r="C123" s="105" t="s">
+      <c r="C123" s="98" t="s">
         <v>1028</v>
       </c>
-      <c r="D123" s="105" t="s">
+      <c r="D123" s="98" t="s">
         <v>951</v>
       </c>
-      <c r="E123" s="105" t="s">
+      <c r="E123" s="98" t="s">
         <v>1029</v>
       </c>
-      <c r="F123" s="105" t="s">
+      <c r="F123" s="98" t="s">
         <v>683</v>
       </c>
-      <c r="G123" s="105" t="s">
+      <c r="G123" s="98" t="s">
         <v>1030</v>
       </c>
-      <c r="H123" s="105" t="s">
+      <c r="H123" s="98" t="s">
         <v>1031</v>
       </c>
-      <c r="I123" s="96" t="s">
+      <c r="I123" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A124" s="107">
+      <c r="A124" s="99">
         <v>22</v>
       </c>
-      <c r="B124" s="105">
+      <c r="B124" s="98">
         <v>22</v>
       </c>
-      <c r="C124" s="105" t="s">
+      <c r="C124" s="98" t="s">
         <v>1032</v>
       </c>
-      <c r="D124" s="105" t="s">
+      <c r="D124" s="98" t="s">
         <v>951</v>
       </c>
-      <c r="E124" s="105" t="s">
+      <c r="E124" s="98" t="s">
         <v>1033</v>
       </c>
-      <c r="F124" s="105" t="s">
+      <c r="F124" s="98" t="s">
         <v>683</v>
       </c>
-      <c r="G124" s="105" t="s">
+      <c r="G124" s="98" t="s">
         <v>1034</v>
       </c>
-      <c r="H124" s="105" t="s">
+      <c r="H124" s="98" t="s">
         <v>1035</v>
       </c>
-      <c r="I124" s="96" t="s">
+      <c r="I124" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A125" s="107">
+      <c r="A125" s="99">
         <v>23</v>
       </c>
-      <c r="B125" s="105">
+      <c r="B125" s="98">
         <v>23</v>
       </c>
-      <c r="C125" s="105" t="s">
+      <c r="C125" s="98" t="s">
         <v>1036</v>
       </c>
-      <c r="D125" s="105" t="s">
+      <c r="D125" s="98" t="s">
         <v>951</v>
       </c>
-      <c r="E125" s="105" t="s">
+      <c r="E125" s="98" t="s">
         <v>1037</v>
       </c>
-      <c r="F125" s="105" t="s">
+      <c r="F125" s="98" t="s">
         <v>1038</v>
       </c>
-      <c r="G125" s="105" t="s">
+      <c r="G125" s="98" t="s">
         <v>1039</v>
       </c>
-      <c r="H125" s="105" t="s">
+      <c r="H125" s="98" t="s">
         <v>1040</v>
       </c>
-      <c r="I125" s="96" t="s">
+      <c r="I125" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="96" x14ac:dyDescent="0.3">
-      <c r="A126" s="107">
+      <c r="A126" s="99">
         <v>24</v>
       </c>
-      <c r="B126" s="105">
+      <c r="B126" s="98">
         <v>1</v>
       </c>
-      <c r="C126" s="105" t="s">
+      <c r="C126" s="98" t="s">
         <v>1041</v>
       </c>
-      <c r="D126" s="105" t="s">
+      <c r="D126" s="98" t="s">
         <v>946</v>
       </c>
-      <c r="E126" s="105" t="s">
+      <c r="E126" s="98" t="s">
         <v>1042</v>
       </c>
-      <c r="F126" s="105" t="s">
+      <c r="F126" s="98" t="s">
         <v>683</v>
       </c>
-      <c r="G126" s="105" t="s">
+      <c r="G126" s="98" t="s">
         <v>1043</v>
       </c>
-      <c r="H126" s="105" t="s">
+      <c r="H126" s="98" t="s">
         <v>1044</v>
       </c>
-      <c r="I126" s="109" t="s">
+      <c r="I126" s="101" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="103">
+      <c r="A127" s="108">
         <v>25</v>
       </c>
-      <c r="B127" s="104">
+      <c r="B127" s="109">
         <v>2</v>
       </c>
-      <c r="C127" s="104" t="s">
+      <c r="C127" s="109" t="s">
         <v>1045</v>
       </c>
-      <c r="D127" s="104" t="s">
+      <c r="D127" s="109" t="s">
         <v>951</v>
       </c>
-      <c r="E127" s="104" t="s">
+      <c r="E127" s="109" t="s">
         <v>1046</v>
       </c>
-      <c r="F127" s="105" t="s">
+      <c r="F127" s="98" t="s">
         <v>1047</v>
       </c>
-      <c r="G127" s="104" t="s">
+      <c r="G127" s="109" t="s">
         <v>1048</v>
       </c>
-      <c r="H127" s="104" t="s">
+      <c r="H127" s="109" t="s">
         <v>1049</v>
       </c>
-      <c r="I127" s="110" t="s">
+      <c r="I127" s="107" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="103"/>
-      <c r="B128" s="104"/>
-      <c r="C128" s="104"/>
-      <c r="D128" s="104"/>
-      <c r="E128" s="104"/>
-      <c r="F128" s="105" t="s">
+      <c r="A128" s="108"/>
+      <c r="B128" s="109"/>
+      <c r="C128" s="109"/>
+      <c r="D128" s="109"/>
+      <c r="E128" s="109"/>
+      <c r="F128" s="98" t="s">
         <v>1050</v>
       </c>
-      <c r="G128" s="104"/>
-      <c r="H128" s="104"/>
-      <c r="I128" s="110"/>
+      <c r="G128" s="109"/>
+      <c r="H128" s="109"/>
+      <c r="I128" s="107"/>
     </row>
     <row r="129" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="103">
+      <c r="A129" s="108">
         <v>26</v>
       </c>
-      <c r="B129" s="104">
+      <c r="B129" s="109">
         <v>3</v>
       </c>
-      <c r="C129" s="104" t="s">
+      <c r="C129" s="109" t="s">
         <v>1051</v>
       </c>
-      <c r="D129" s="104" t="s">
+      <c r="D129" s="109" t="s">
         <v>951</v>
       </c>
-      <c r="E129" s="104" t="s">
+      <c r="E129" s="109" t="s">
         <v>1052</v>
       </c>
-      <c r="F129" s="105" t="s">
+      <c r="F129" s="98" t="s">
         <v>1053</v>
       </c>
-      <c r="G129" s="104" t="s">
+      <c r="G129" s="109" t="s">
         <v>1054</v>
       </c>
-      <c r="H129" s="104" t="s">
+      <c r="H129" s="109" t="s">
         <v>1055</v>
       </c>
-      <c r="I129" s="110" t="s">
+      <c r="I129" s="107" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A130" s="103"/>
-      <c r="B130" s="104"/>
-      <c r="C130" s="104"/>
-      <c r="D130" s="104"/>
-      <c r="E130" s="104"/>
-      <c r="F130" s="105" t="s">
+      <c r="A130" s="108"/>
+      <c r="B130" s="109"/>
+      <c r="C130" s="109"/>
+      <c r="D130" s="109"/>
+      <c r="E130" s="109"/>
+      <c r="F130" s="98" t="s">
         <v>1056</v>
       </c>
-      <c r="G130" s="104"/>
-      <c r="H130" s="104"/>
-      <c r="I130" s="110"/>
+      <c r="G130" s="109"/>
+      <c r="H130" s="109"/>
+      <c r="I130" s="107"/>
     </row>
     <row r="131" spans="1:9" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="111">
+      <c r="A131" s="102">
         <v>27</v>
       </c>
-      <c r="B131" s="112">
+      <c r="B131" s="103">
         <v>4</v>
       </c>
-      <c r="C131" s="112" t="s">
+      <c r="C131" s="103" t="s">
         <v>1057</v>
       </c>
-      <c r="D131" s="112" t="s">
+      <c r="D131" s="103" t="s">
         <v>951</v>
       </c>
-      <c r="E131" s="112" t="s">
+      <c r="E131" s="103" t="s">
         <v>1058</v>
       </c>
-      <c r="F131" s="112" t="s">
+      <c r="F131" s="103" t="s">
         <v>1059</v>
       </c>
-      <c r="G131" s="112" t="s">
+      <c r="G131" s="103" t="s">
         <v>1060</v>
       </c>
-      <c r="H131" s="112" t="s">
+      <c r="H131" s="103" t="s">
         <v>1061</v>
       </c>
-      <c r="I131" s="113" t="s">
+      <c r="I131" s="104" t="s">
         <v>692</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
     <mergeCell ref="G104:G105"/>
     <mergeCell ref="H104:H105"/>
     <mergeCell ref="I104:I105"/>
@@ -12084,24 +12860,20 @@
     <mergeCell ref="E127:E128"/>
     <mergeCell ref="G127:G128"/>
     <mergeCell ref="H127:H128"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="B104:B105"/>
     <mergeCell ref="C104:C105"/>
     <mergeCell ref="D104:D105"/>
     <mergeCell ref="E104:E105"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1"/>

--- a/Assignment/Module2/Assignment_2_HLR_TESTSCENARIO_TESTCASE.xlsx
+++ b/Assignment/Module2/Assignment_2_HLR_TESTSCENARIO_TESTCASE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HLR_Assignment_2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="1103">
   <si>
     <t xml:space="preserve">Write a scenario of chair
 </t>
@@ -2996,131 +2996,6 @@
   </si>
   <si>
     <t>User should be logged out and redirected to the login page.</t>
-  </si>
-  <si>
-    <t>Verify post submission with invalid file type</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click "Add Post", select an invalid file type (e.g., </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>.exe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>), and try posting</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">File: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>malware.exe</t>
-    </r>
-  </si>
-  <si>
-    <t>Error message "Invalid file type" should appear and the post should not be uploaded.</t>
-  </si>
-  <si>
-    <t>File uploaded without error</t>
-  </si>
-  <si>
-    <t>Verify comment section does not accept special characters</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Try to enter a comment with special characters like </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>@#$%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Comment: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>@#$%^&amp;*</t>
-    </r>
-  </si>
-  <si>
-    <t>Special characters should be rejected, and an error message should be displayed.</t>
-  </si>
-  <si>
-    <t>Comment posted with special chars</t>
-  </si>
-  <si>
-    <t>Verify the ability to follow a user from the profile page</t>
-  </si>
-  <si>
-    <t>User is logged in and viewing a profile</t>
-  </si>
-  <si>
-    <t>Click the "Follow" button on another user’s profile.</t>
-  </si>
-  <si>
-    <t>The "Follow" button should change to "Following" upon successful action.</t>
-  </si>
-  <si>
-    <t>Button did not change to "Following"</t>
-  </si>
-  <si>
-    <t>Verify error handling when uploading corrupted image</t>
-  </si>
-  <si>
-    <t>Click "Add Post", select a corrupted image file, and try posting</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Image: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>corrupted_image.jpg</t>
-    </r>
-  </si>
-  <si>
-    <t>Error message should appear stating the file is corrupted, and the upload should not succeed.</t>
-  </si>
-  <si>
-    <t>Image uploaded with corruption</t>
   </si>
   <si>
     <t>Test case of Instragram Web</t>
@@ -3499,145 +3374,6 @@
   </si>
   <si>
     <t>Page displayed in Spanish</t>
-  </si>
-  <si>
-    <t>Check URL for Instagram Web (Fail Scenario)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enter an incorrect URL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.instagramm.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in the browser and press Enter</t>
-    </r>
-  </si>
-  <si>
-    <t>Instagram login page should not load; instead, a "Page Not Found" error should appear.</t>
-  </si>
-  <si>
-    <t>"Page Not Found" error page</t>
-  </si>
-  <si>
-    <t>Check Login Button (Fail Scenario)</t>
-  </si>
-  <si>
-    <t>Enter invalid credentials (incorrect username or password) and click the Login button</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Username: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>invalidUser</t>
-    </r>
-  </si>
-  <si>
-    <t>User should not be redirected to the home/dashboard page; an error message should appear instead.</t>
-  </si>
-  <si>
-    <t>Error message: "Invalid credentials"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Password: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>invalidPass123</t>
-    </r>
-  </si>
-  <si>
-    <t>Check Login with Facebook (Fail Scenario)</t>
-  </si>
-  <si>
-    <t>Click the "Login with Facebook" button, but enter incorrect Facebook credentials</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Facebook Username: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>invalidUser</t>
-    </r>
-  </si>
-  <si>
-    <t>User should be unable to log in; the login attempt should fail, and an error message should appear.</t>
-  </si>
-  <si>
-    <t>Error message from Facebook</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Facebook Password: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>invalidPass123</t>
-    </r>
-  </si>
-  <si>
-    <t>Check Forgot Password Link (Fail Scenario)</t>
-  </si>
-  <si>
-    <t>Click the "Forgot Password" link and enter an unregistered email or phone number</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Email: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>nonExistent@example.com</t>
-    </r>
-  </si>
-  <si>
-    <t>User should receive a "No account found" message.</t>
-  </si>
-  <si>
-    <t>"No account found" message</t>
   </si>
   <si>
     <t>User successfully links their bank account to WhatsApp Payment.</t>
@@ -4400,7 +4136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4663,18 +4399,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4689,45 +4413,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4754,6 +4439,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5135,10 +4844,10 @@
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="106" t="s">
         <v>531</v>
       </c>
-      <c r="B11" s="106"/>
+      <c r="B11" s="107"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
@@ -5980,7 +5689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
+    <sheetView topLeftCell="A335" workbookViewId="0">
       <selection activeCell="G342" sqref="G342"/>
     </sheetView>
   </sheetViews>
@@ -9016,9 +8725,9 @@
     </row>
     <row r="315" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="316" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A316" s="114"/>
-      <c r="B316" s="115" t="s">
-        <v>1103</v>
+      <c r="A316" s="97"/>
+      <c r="B316" s="98" t="s">
+        <v>1062</v>
       </c>
       <c r="C316"/>
     </row>
@@ -9028,25 +8737,25 @@
       <c r="C317"/>
     </row>
     <row r="318" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A318" s="117" t="s">
+      <c r="A318" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B318" s="118" t="s">
+      <c r="B318" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C318" s="119" t="s">
+      <c r="C318" s="102" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A319" s="116">
+      <c r="A319" s="99">
         <v>1</v>
       </c>
-      <c r="B319" s="116" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C319" s="116" t="s">
-        <v>1063</v>
+      <c r="B319" s="99" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C319" s="99" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9054,10 +8763,10 @@
         <v>2</v>
       </c>
       <c r="B320" s="19" t="s">
-        <v>1064</v>
+        <v>1023</v>
       </c>
       <c r="C320" s="19" t="s">
-        <v>1065</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9065,10 +8774,10 @@
         <v>3</v>
       </c>
       <c r="B321" s="19" t="s">
-        <v>1066</v>
+        <v>1025</v>
       </c>
       <c r="C321" s="19" t="s">
-        <v>1067</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9076,10 +8785,10 @@
         <v>4</v>
       </c>
       <c r="B322" s="19" t="s">
-        <v>1068</v>
+        <v>1027</v>
       </c>
       <c r="C322" s="19" t="s">
-        <v>1069</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9087,10 +8796,10 @@
         <v>5</v>
       </c>
       <c r="B323" s="19" t="s">
-        <v>1070</v>
+        <v>1029</v>
       </c>
       <c r="C323" s="19" t="s">
-        <v>1071</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9098,10 +8807,10 @@
         <v>6</v>
       </c>
       <c r="B324" s="19" t="s">
-        <v>1072</v>
+        <v>1031</v>
       </c>
       <c r="C324" s="19" t="s">
-        <v>1073</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9109,10 +8818,10 @@
         <v>7</v>
       </c>
       <c r="B325" s="19" t="s">
-        <v>1074</v>
+        <v>1033</v>
       </c>
       <c r="C325" s="19" t="s">
-        <v>1075</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9120,10 +8829,10 @@
         <v>8</v>
       </c>
       <c r="B326" s="19" t="s">
-        <v>1076</v>
+        <v>1035</v>
       </c>
       <c r="C326" s="19" t="s">
-        <v>1077</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9131,10 +8840,10 @@
         <v>9</v>
       </c>
       <c r="B327" s="19" t="s">
-        <v>1078</v>
+        <v>1037</v>
       </c>
       <c r="C327" s="19" t="s">
-        <v>1079</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9142,10 +8851,10 @@
         <v>10</v>
       </c>
       <c r="B328" s="19" t="s">
-        <v>1080</v>
+        <v>1039</v>
       </c>
       <c r="C328" s="19" t="s">
-        <v>1081</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9153,10 +8862,10 @@
         <v>11</v>
       </c>
       <c r="B329" s="19" t="s">
-        <v>1082</v>
+        <v>1041</v>
       </c>
       <c r="C329" s="19" t="s">
-        <v>1083</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9164,10 +8873,10 @@
         <v>12</v>
       </c>
       <c r="B330" s="19" t="s">
-        <v>1084</v>
+        <v>1043</v>
       </c>
       <c r="C330" s="19" t="s">
-        <v>1085</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9175,10 +8884,10 @@
         <v>13</v>
       </c>
       <c r="B331" s="19" t="s">
-        <v>1086</v>
+        <v>1045</v>
       </c>
       <c r="C331" s="19" t="s">
-        <v>1087</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9186,10 +8895,10 @@
         <v>14</v>
       </c>
       <c r="B332" s="19" t="s">
-        <v>1088</v>
+        <v>1047</v>
       </c>
       <c r="C332" s="19" t="s">
-        <v>1089</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9197,10 +8906,10 @@
         <v>15</v>
       </c>
       <c r="B333" s="19" t="s">
-        <v>1090</v>
+        <v>1049</v>
       </c>
       <c r="C333" s="19" t="s">
-        <v>1091</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9208,10 +8917,10 @@
         <v>16</v>
       </c>
       <c r="B334" s="19" t="s">
-        <v>1092</v>
+        <v>1051</v>
       </c>
       <c r="C334" s="19" t="s">
-        <v>1093</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9219,10 +8928,10 @@
         <v>17</v>
       </c>
       <c r="B335" s="19" t="s">
-        <v>1094</v>
+        <v>1053</v>
       </c>
       <c r="C335" s="19" t="s">
-        <v>1095</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9230,10 +8939,10 @@
         <v>18</v>
       </c>
       <c r="B336" s="19" t="s">
-        <v>1096</v>
+        <v>1055</v>
       </c>
       <c r="C336" s="19" t="s">
-        <v>1097</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9241,10 +8950,10 @@
         <v>19</v>
       </c>
       <c r="B337" s="19" t="s">
-        <v>1098</v>
+        <v>1057</v>
       </c>
       <c r="C337" s="19" t="s">
-        <v>1099</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9252,27 +8961,27 @@
         <v>20</v>
       </c>
       <c r="B338" s="19" t="s">
-        <v>1100</v>
+        <v>1059</v>
       </c>
       <c r="C338" s="19" t="s">
-        <v>1101</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="341" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B341" s="115" t="s">
-        <v>1102</v>
+      <c r="B341" s="98" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" s="120" t="s">
+      <c r="A343" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B343" s="121" t="s">
+      <c r="B343" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="C343" s="122" t="s">
+      <c r="C343" s="105" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9281,10 +8990,10 @@
         <v>1</v>
       </c>
       <c r="B344" s="19" t="s">
-        <v>1104</v>
+        <v>1063</v>
       </c>
       <c r="C344" s="19" t="s">
-        <v>1105</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9292,10 +9001,10 @@
         <v>2</v>
       </c>
       <c r="B345" s="19" t="s">
-        <v>1106</v>
+        <v>1065</v>
       </c>
       <c r="C345" s="19" t="s">
-        <v>1107</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9303,10 +9012,10 @@
         <v>3</v>
       </c>
       <c r="B346" s="19" t="s">
-        <v>1108</v>
+        <v>1067</v>
       </c>
       <c r="C346" s="19" t="s">
-        <v>1109</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9314,10 +9023,10 @@
         <v>4</v>
       </c>
       <c r="B347" s="19" t="s">
-        <v>1110</v>
+        <v>1069</v>
       </c>
       <c r="C347" s="19" t="s">
-        <v>1111</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9325,10 +9034,10 @@
         <v>5</v>
       </c>
       <c r="B348" s="19" t="s">
-        <v>1112</v>
+        <v>1071</v>
       </c>
       <c r="C348" s="19" t="s">
-        <v>1113</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9336,10 +9045,10 @@
         <v>6</v>
       </c>
       <c r="B349" s="19" t="s">
-        <v>1114</v>
+        <v>1073</v>
       </c>
       <c r="C349" s="19" t="s">
-        <v>1115</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9347,10 +9056,10 @@
         <v>7</v>
       </c>
       <c r="B350" s="19" t="s">
-        <v>1116</v>
+        <v>1075</v>
       </c>
       <c r="C350" s="19" t="s">
-        <v>1117</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9358,10 +9067,10 @@
         <v>8</v>
       </c>
       <c r="B351" s="19" t="s">
-        <v>1118</v>
+        <v>1077</v>
       </c>
       <c r="C351" s="19" t="s">
-        <v>1119</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9369,10 +9078,10 @@
         <v>9</v>
       </c>
       <c r="B352" s="19" t="s">
-        <v>1120</v>
+        <v>1079</v>
       </c>
       <c r="C352" s="19" t="s">
-        <v>1121</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9380,10 +9089,10 @@
         <v>10</v>
       </c>
       <c r="B353" s="19" t="s">
-        <v>1122</v>
+        <v>1081</v>
       </c>
       <c r="C353" s="19" t="s">
-        <v>1123</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9391,10 +9100,10 @@
         <v>11</v>
       </c>
       <c r="B354" s="19" t="s">
-        <v>1124</v>
+        <v>1083</v>
       </c>
       <c r="C354" s="19" t="s">
-        <v>1125</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9402,10 +9111,10 @@
         <v>12</v>
       </c>
       <c r="B355" s="19" t="s">
-        <v>1126</v>
+        <v>1085</v>
       </c>
       <c r="C355" s="19" t="s">
-        <v>1127</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9413,10 +9122,10 @@
         <v>13</v>
       </c>
       <c r="B356" s="19" t="s">
-        <v>1128</v>
+        <v>1087</v>
       </c>
       <c r="C356" s="19" t="s">
-        <v>1129</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9424,10 +9133,10 @@
         <v>14</v>
       </c>
       <c r="B357" s="19" t="s">
-        <v>1130</v>
+        <v>1089</v>
       </c>
       <c r="C357" s="19" t="s">
-        <v>1131</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9435,10 +9144,10 @@
         <v>15</v>
       </c>
       <c r="B358" s="19" t="s">
-        <v>1132</v>
+        <v>1091</v>
       </c>
       <c r="C358" s="19" t="s">
-        <v>1133</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9446,10 +9155,10 @@
         <v>16</v>
       </c>
       <c r="B359" s="19" t="s">
-        <v>1134</v>
+        <v>1093</v>
       </c>
       <c r="C359" s="19" t="s">
-        <v>1135</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9457,10 +9166,10 @@
         <v>17</v>
       </c>
       <c r="B360" s="19" t="s">
-        <v>1136</v>
+        <v>1095</v>
       </c>
       <c r="C360" s="19" t="s">
-        <v>1137</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9468,10 +9177,10 @@
         <v>18</v>
       </c>
       <c r="B361" s="19" t="s">
-        <v>1138</v>
+        <v>1097</v>
       </c>
       <c r="C361" s="19" t="s">
-        <v>1139</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9479,10 +9188,10 @@
         <v>19</v>
       </c>
       <c r="B362" s="19" t="s">
-        <v>1140</v>
+        <v>1099</v>
       </c>
       <c r="C362" s="19" t="s">
-        <v>1141</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -9490,10 +9199,10 @@
         <v>20</v>
       </c>
       <c r="B363" s="19" t="s">
-        <v>1142</v>
+        <v>1101</v>
       </c>
       <c r="C363" s="19" t="s">
-        <v>1143</v>
+        <v>1102</v>
       </c>
     </row>
   </sheetData>
@@ -9504,10 +9213,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9525,11 +9234,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="110" t="s">
         <v>665</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="113"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="112"/>
     </row>
     <row r="3" spans="1:9" s="49" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
@@ -10490,11 +10199,11 @@
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="111" t="s">
+      <c r="A38" s="110" t="s">
         <v>752</v>
       </c>
-      <c r="B38" s="112"/>
-      <c r="C38" s="113"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="112"/>
     </row>
     <row r="40" spans="1:9" s="49" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A40" s="65" t="s">
@@ -11107,11 +10816,11 @@
     </row>
     <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="63" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="111" t="s">
+      <c r="A63" s="110" t="s">
         <v>831</v>
       </c>
-      <c r="B63" s="112"/>
-      <c r="C63" s="113"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="112"/>
     </row>
     <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="65" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -11520,11 +11229,11 @@
     </row>
     <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="80" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="111" t="s">
+      <c r="A80" s="110" t="s">
         <v>887</v>
       </c>
-      <c r="B80" s="112"/>
-      <c r="C80" s="113"/>
+      <c r="B80" s="111"/>
+      <c r="C80" s="112"/>
     </row>
     <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="82" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -11846,1034 +11555,760 @@
         <v>680</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="88" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A93" s="89">
-        <v>11</v>
-      </c>
-      <c r="B93" s="90">
-        <v>11</v>
-      </c>
-      <c r="C93" s="90" t="s">
+    <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="94" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="110" t="s">
         <v>924</v>
       </c>
-      <c r="D93" s="90" t="s">
-        <v>905</v>
-      </c>
-      <c r="E93" s="90" t="s">
+      <c r="B94" s="111"/>
+      <c r="C94" s="112"/>
+    </row>
+    <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="96" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="82" t="s">
+        <v>666</v>
+      </c>
+      <c r="B96" s="83" t="s">
+        <v>667</v>
+      </c>
+      <c r="C96" s="83" t="s">
+        <v>668</v>
+      </c>
+      <c r="D96" s="83" t="s">
+        <v>669</v>
+      </c>
+      <c r="E96" s="83" t="s">
+        <v>670</v>
+      </c>
+      <c r="F96" s="83" t="s">
+        <v>671</v>
+      </c>
+      <c r="G96" s="83" t="s">
+        <v>672</v>
+      </c>
+      <c r="H96" s="83" t="s">
+        <v>673</v>
+      </c>
+      <c r="I96" s="84" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="96" x14ac:dyDescent="0.3">
+      <c r="A97" s="92">
+        <v>1</v>
+      </c>
+      <c r="B97" s="93">
+        <v>1</v>
+      </c>
+      <c r="C97" s="93" t="s">
         <v>925</v>
       </c>
-      <c r="F93" s="90" t="s">
+      <c r="D97" s="93" t="s">
         <v>926</v>
       </c>
-      <c r="G93" s="90" t="s">
+      <c r="E97" s="93" t="s">
         <v>927</v>
       </c>
-      <c r="H93" s="90" t="s">
+      <c r="F97" s="93" t="s">
+        <v>683</v>
+      </c>
+      <c r="G97" s="93" t="s">
         <v>928</v>
       </c>
-      <c r="I93" s="92" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" s="88" customFormat="1" ht="63.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="89">
-        <v>12</v>
-      </c>
-      <c r="B94" s="90">
-        <v>12</v>
-      </c>
-      <c r="C94" s="90" t="s">
+      <c r="H97" s="93" t="s">
         <v>929</v>
       </c>
-      <c r="D94" s="90" t="s">
-        <v>914</v>
-      </c>
-      <c r="E94" s="90" t="s">
+      <c r="I97" s="91" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="108">
+        <v>2</v>
+      </c>
+      <c r="B98" s="109">
+        <v>2</v>
+      </c>
+      <c r="C98" s="109" t="s">
         <v>930</v>
       </c>
-      <c r="F94" s="90" t="s">
+      <c r="D98" s="109" t="s">
         <v>931</v>
       </c>
-      <c r="G94" s="90" t="s">
+      <c r="E98" s="109" t="s">
         <v>932</v>
       </c>
-      <c r="H94" s="90" t="s">
+      <c r="F98" s="94" t="s">
         <v>933</v>
       </c>
-      <c r="I94" s="92" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="88" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A95" s="89">
-        <v>13</v>
-      </c>
-      <c r="B95" s="90">
-        <v>13</v>
-      </c>
-      <c r="C95" s="90" t="s">
+      <c r="G98" s="109" t="s">
         <v>934</v>
       </c>
-      <c r="D95" s="90" t="s">
+      <c r="H98" s="109" t="s">
         <v>935</v>
       </c>
-      <c r="E95" s="90" t="s">
+      <c r="I98" s="113" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="108"/>
+      <c r="B99" s="109"/>
+      <c r="C99" s="109"/>
+      <c r="D99" s="109"/>
+      <c r="E99" s="109"/>
+      <c r="F99" s="94" t="s">
         <v>936</v>
       </c>
-      <c r="F95" s="90" t="s">
+      <c r="G99" s="109"/>
+      <c r="H99" s="109"/>
+      <c r="I99" s="113"/>
+    </row>
+    <row r="100" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="108">
+        <v>3</v>
+      </c>
+      <c r="B100" s="109">
+        <v>3</v>
+      </c>
+      <c r="C100" s="109" t="s">
+        <v>937</v>
+      </c>
+      <c r="D100" s="109" t="s">
+        <v>931</v>
+      </c>
+      <c r="E100" s="109" t="s">
+        <v>938</v>
+      </c>
+      <c r="F100" s="94" t="s">
+        <v>939</v>
+      </c>
+      <c r="G100" s="109" t="s">
+        <v>940</v>
+      </c>
+      <c r="H100" s="109" t="s">
+        <v>935</v>
+      </c>
+      <c r="I100" s="113" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A101" s="108"/>
+      <c r="B101" s="109"/>
+      <c r="C101" s="109"/>
+      <c r="D101" s="109"/>
+      <c r="E101" s="109"/>
+      <c r="F101" s="94" t="s">
+        <v>941</v>
+      </c>
+      <c r="G101" s="109"/>
+      <c r="H101" s="109"/>
+      <c r="I101" s="113"/>
+    </row>
+    <row r="102" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+      <c r="A102" s="95">
+        <v>4</v>
+      </c>
+      <c r="B102" s="94">
+        <v>4</v>
+      </c>
+      <c r="C102" s="94" t="s">
+        <v>942</v>
+      </c>
+      <c r="D102" s="94" t="s">
+        <v>931</v>
+      </c>
+      <c r="E102" s="94" t="s">
+        <v>943</v>
+      </c>
+      <c r="F102" s="94" t="s">
+        <v>944</v>
+      </c>
+      <c r="G102" s="94" t="s">
+        <v>945</v>
+      </c>
+      <c r="H102" s="94" t="s">
+        <v>946</v>
+      </c>
+      <c r="I102" s="96" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+      <c r="A103" s="95">
+        <v>5</v>
+      </c>
+      <c r="B103" s="94">
+        <v>5</v>
+      </c>
+      <c r="C103" s="94" t="s">
+        <v>947</v>
+      </c>
+      <c r="D103" s="94" t="s">
+        <v>931</v>
+      </c>
+      <c r="E103" s="94" t="s">
+        <v>948</v>
+      </c>
+      <c r="F103" s="94" t="s">
         <v>683</v>
       </c>
-      <c r="G95" s="90" t="s">
-        <v>937</v>
-      </c>
-      <c r="H95" s="90" t="s">
-        <v>938</v>
-      </c>
-      <c r="I95" s="92" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" s="88" customFormat="1" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="93">
-        <v>14</v>
-      </c>
-      <c r="B96" s="94">
-        <v>14</v>
-      </c>
-      <c r="C96" s="94" t="s">
-        <v>939</v>
-      </c>
-      <c r="D96" s="94" t="s">
-        <v>905</v>
-      </c>
-      <c r="E96" s="94" t="s">
-        <v>940</v>
-      </c>
-      <c r="F96" s="94" t="s">
-        <v>941</v>
-      </c>
-      <c r="G96" s="94" t="s">
-        <v>942</v>
-      </c>
-      <c r="H96" s="94" t="s">
-        <v>943</v>
-      </c>
-      <c r="I96" s="95" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="98" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="111" t="s">
-        <v>944</v>
-      </c>
-      <c r="B98" s="112"/>
-      <c r="C98" s="113"/>
-    </row>
-    <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="100" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="82" t="s">
-        <v>666</v>
-      </c>
-      <c r="B100" s="83" t="s">
-        <v>667</v>
-      </c>
-      <c r="C100" s="83" t="s">
-        <v>668</v>
-      </c>
-      <c r="D100" s="83" t="s">
-        <v>669</v>
-      </c>
-      <c r="E100" s="83" t="s">
-        <v>670</v>
-      </c>
-      <c r="F100" s="83" t="s">
-        <v>671</v>
-      </c>
-      <c r="G100" s="83" t="s">
-        <v>672</v>
-      </c>
-      <c r="H100" s="83" t="s">
-        <v>673</v>
-      </c>
-      <c r="I100" s="84" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="96" x14ac:dyDescent="0.3">
-      <c r="A101" s="96">
-        <v>1</v>
-      </c>
-      <c r="B101" s="97">
-        <v>1</v>
-      </c>
-      <c r="C101" s="97" t="s">
-        <v>945</v>
-      </c>
-      <c r="D101" s="97" t="s">
-        <v>946</v>
-      </c>
-      <c r="E101" s="97" t="s">
-        <v>947</v>
-      </c>
-      <c r="F101" s="97" t="s">
+      <c r="G103" s="94" t="s">
+        <v>949</v>
+      </c>
+      <c r="H103" s="94" t="s">
+        <v>950</v>
+      </c>
+      <c r="I103" s="91" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="95">
+        <v>6</v>
+      </c>
+      <c r="B104" s="94">
+        <v>6</v>
+      </c>
+      <c r="C104" s="94" t="s">
+        <v>951</v>
+      </c>
+      <c r="D104" s="94" t="s">
+        <v>931</v>
+      </c>
+      <c r="E104" s="94" t="s">
+        <v>952</v>
+      </c>
+      <c r="F104" s="94" t="s">
         <v>683</v>
       </c>
-      <c r="G101" s="97" t="s">
-        <v>948</v>
-      </c>
-      <c r="H101" s="97" t="s">
-        <v>949</v>
-      </c>
-      <c r="I101" s="91" t="s">
+      <c r="G104" s="94" t="s">
+        <v>953</v>
+      </c>
+      <c r="H104" s="94" t="s">
+        <v>954</v>
+      </c>
+      <c r="I104" s="91" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="108">
-        <v>2</v>
-      </c>
-      <c r="B102" s="109">
-        <v>2</v>
-      </c>
-      <c r="C102" s="109" t="s">
-        <v>950</v>
-      </c>
-      <c r="D102" s="109" t="s">
-        <v>951</v>
-      </c>
-      <c r="E102" s="109" t="s">
-        <v>952</v>
-      </c>
-      <c r="F102" s="98" t="s">
-        <v>953</v>
-      </c>
-      <c r="G102" s="109" t="s">
-        <v>954</v>
-      </c>
-      <c r="H102" s="109" t="s">
+    <row r="105" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+      <c r="A105" s="95">
+        <v>7</v>
+      </c>
+      <c r="B105" s="94">
+        <v>7</v>
+      </c>
+      <c r="C105" s="94" t="s">
         <v>955</v>
       </c>
-      <c r="I102" s="110" t="s">
+      <c r="D105" s="94" t="s">
+        <v>931</v>
+      </c>
+      <c r="E105" s="94" t="s">
+        <v>956</v>
+      </c>
+      <c r="F105" s="94" t="s">
+        <v>683</v>
+      </c>
+      <c r="G105" s="94" t="s">
+        <v>957</v>
+      </c>
+      <c r="H105" s="94" t="s">
+        <v>958</v>
+      </c>
+      <c r="I105" s="91" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="108"/>
-      <c r="B103" s="109"/>
-      <c r="C103" s="109"/>
-      <c r="D103" s="109"/>
-      <c r="E103" s="109"/>
-      <c r="F103" s="98" t="s">
-        <v>956</v>
-      </c>
-      <c r="G103" s="109"/>
-      <c r="H103" s="109"/>
-      <c r="I103" s="110"/>
-    </row>
-    <row r="104" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="108">
-        <v>3</v>
-      </c>
-      <c r="B104" s="109">
-        <v>3</v>
-      </c>
-      <c r="C104" s="109" t="s">
-        <v>957</v>
-      </c>
-      <c r="D104" s="109" t="s">
-        <v>951</v>
-      </c>
-      <c r="E104" s="109" t="s">
-        <v>958</v>
-      </c>
-      <c r="F104" s="98" t="s">
+    <row r="106" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="95">
+        <v>8</v>
+      </c>
+      <c r="B106" s="94">
+        <v>8</v>
+      </c>
+      <c r="C106" s="94" t="s">
         <v>959</v>
       </c>
-      <c r="G104" s="109" t="s">
+      <c r="D106" s="94" t="s">
+        <v>931</v>
+      </c>
+      <c r="E106" s="94" t="s">
         <v>960</v>
       </c>
-      <c r="H104" s="109" t="s">
-        <v>955</v>
-      </c>
-      <c r="I104" s="110" t="s">
+      <c r="F106" s="94" t="s">
+        <v>683</v>
+      </c>
+      <c r="G106" s="94" t="s">
+        <v>961</v>
+      </c>
+      <c r="H106" s="94" t="s">
+        <v>962</v>
+      </c>
+      <c r="I106" s="91" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A105" s="108"/>
-      <c r="B105" s="109"/>
-      <c r="C105" s="109"/>
-      <c r="D105" s="109"/>
-      <c r="E105" s="109"/>
-      <c r="F105" s="98" t="s">
-        <v>961</v>
-      </c>
-      <c r="G105" s="109"/>
-      <c r="H105" s="109"/>
-      <c r="I105" s="110"/>
-    </row>
-    <row r="106" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A106" s="99">
-        <v>4</v>
-      </c>
-      <c r="B106" s="98">
-        <v>4</v>
-      </c>
-      <c r="C106" s="98" t="s">
-        <v>962</v>
-      </c>
-      <c r="D106" s="98" t="s">
-        <v>951</v>
-      </c>
-      <c r="E106" s="98" t="s">
+    <row r="107" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A107" s="95">
+        <v>9</v>
+      </c>
+      <c r="B107" s="94">
+        <v>9</v>
+      </c>
+      <c r="C107" s="94" t="s">
         <v>963</v>
       </c>
-      <c r="F106" s="98" t="s">
+      <c r="D107" s="94" t="s">
+        <v>931</v>
+      </c>
+      <c r="E107" s="94" t="s">
         <v>964</v>
       </c>
-      <c r="G106" s="98" t="s">
+      <c r="F107" s="94" t="s">
+        <v>683</v>
+      </c>
+      <c r="G107" s="94" t="s">
         <v>965</v>
       </c>
-      <c r="H106" s="98" t="s">
+      <c r="H107" s="94" t="s">
         <v>966</v>
-      </c>
-      <c r="I106" s="100" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A107" s="99">
-        <v>5</v>
-      </c>
-      <c r="B107" s="98">
-        <v>5</v>
-      </c>
-      <c r="C107" s="98" t="s">
-        <v>967</v>
-      </c>
-      <c r="D107" s="98" t="s">
-        <v>951</v>
-      </c>
-      <c r="E107" s="98" t="s">
-        <v>968</v>
-      </c>
-      <c r="F107" s="98" t="s">
-        <v>683</v>
-      </c>
-      <c r="G107" s="98" t="s">
-        <v>969</v>
-      </c>
-      <c r="H107" s="98" t="s">
-        <v>970</v>
       </c>
       <c r="I107" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="99">
-        <v>6</v>
-      </c>
-      <c r="B108" s="98">
-        <v>6</v>
-      </c>
-      <c r="C108" s="98" t="s">
-        <v>971</v>
-      </c>
-      <c r="D108" s="98" t="s">
-        <v>951</v>
-      </c>
-      <c r="E108" s="98" t="s">
-        <v>972</v>
-      </c>
-      <c r="F108" s="98" t="s">
+      <c r="A108" s="95">
+        <v>10</v>
+      </c>
+      <c r="B108" s="94">
+        <v>10</v>
+      </c>
+      <c r="C108" s="94" t="s">
+        <v>550</v>
+      </c>
+      <c r="D108" s="94" t="s">
+        <v>931</v>
+      </c>
+      <c r="E108" s="94" t="s">
+        <v>967</v>
+      </c>
+      <c r="F108" s="94" t="s">
         <v>683</v>
       </c>
-      <c r="G108" s="98" t="s">
-        <v>973</v>
-      </c>
-      <c r="H108" s="98" t="s">
-        <v>974</v>
+      <c r="G108" s="94" t="s">
+        <v>968</v>
+      </c>
+      <c r="H108" s="94" t="s">
+        <v>969</v>
       </c>
       <c r="I108" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A109" s="99">
-        <v>7</v>
-      </c>
-      <c r="B109" s="98">
-        <v>7</v>
-      </c>
-      <c r="C109" s="98" t="s">
-        <v>975</v>
-      </c>
-      <c r="D109" s="98" t="s">
-        <v>951</v>
-      </c>
-      <c r="E109" s="98" t="s">
-        <v>976</v>
-      </c>
-      <c r="F109" s="98" t="s">
+      <c r="A109" s="95">
+        <v>11</v>
+      </c>
+      <c r="B109" s="94">
+        <v>11</v>
+      </c>
+      <c r="C109" s="94" t="s">
+        <v>970</v>
+      </c>
+      <c r="D109" s="94" t="s">
+        <v>931</v>
+      </c>
+      <c r="E109" s="94" t="s">
+        <v>971</v>
+      </c>
+      <c r="F109" s="94" t="s">
         <v>683</v>
       </c>
-      <c r="G109" s="98" t="s">
-        <v>977</v>
-      </c>
-      <c r="H109" s="98" t="s">
-        <v>978</v>
+      <c r="G109" s="94" t="s">
+        <v>972</v>
+      </c>
+      <c r="H109" s="94" t="s">
+        <v>973</v>
       </c>
       <c r="I109" s="91" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="99">
-        <v>8</v>
-      </c>
-      <c r="B110" s="98">
-        <v>8</v>
-      </c>
-      <c r="C110" s="98" t="s">
-        <v>979</v>
-      </c>
-      <c r="D110" s="98" t="s">
-        <v>951</v>
-      </c>
-      <c r="E110" s="98" t="s">
-        <v>980</v>
-      </c>
-      <c r="F110" s="98" t="s">
+    <row r="110" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+      <c r="A110" s="95">
+        <v>12</v>
+      </c>
+      <c r="B110" s="94">
+        <v>12</v>
+      </c>
+      <c r="C110" s="94" t="s">
+        <v>974</v>
+      </c>
+      <c r="D110" s="94" t="s">
+        <v>931</v>
+      </c>
+      <c r="E110" s="94" t="s">
+        <v>975</v>
+      </c>
+      <c r="F110" s="94" t="s">
         <v>683</v>
       </c>
-      <c r="G110" s="98" t="s">
-        <v>981</v>
-      </c>
-      <c r="H110" s="98" t="s">
-        <v>982</v>
+      <c r="G110" s="94" t="s">
+        <v>976</v>
+      </c>
+      <c r="H110" s="94" t="s">
+        <v>977</v>
       </c>
       <c r="I110" s="91" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A111" s="99">
-        <v>9</v>
-      </c>
-      <c r="B111" s="98">
-        <v>9</v>
-      </c>
-      <c r="C111" s="98" t="s">
-        <v>983</v>
-      </c>
-      <c r="D111" s="98" t="s">
-        <v>951</v>
-      </c>
-      <c r="E111" s="98" t="s">
-        <v>984</v>
-      </c>
-      <c r="F111" s="98" t="s">
+    <row r="111" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+      <c r="A111" s="95">
+        <v>13</v>
+      </c>
+      <c r="B111" s="94">
+        <v>13</v>
+      </c>
+      <c r="C111" s="94" t="s">
+        <v>978</v>
+      </c>
+      <c r="D111" s="94" t="s">
+        <v>931</v>
+      </c>
+      <c r="E111" s="94" t="s">
+        <v>979</v>
+      </c>
+      <c r="F111" s="94" t="s">
         <v>683</v>
       </c>
-      <c r="G111" s="98" t="s">
-        <v>985</v>
-      </c>
-      <c r="H111" s="98" t="s">
-        <v>986</v>
+      <c r="G111" s="94" t="s">
+        <v>980</v>
+      </c>
+      <c r="H111" s="94" t="s">
+        <v>981</v>
       </c>
       <c r="I111" s="91" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="99">
-        <v>10</v>
-      </c>
-      <c r="B112" s="98">
-        <v>10</v>
-      </c>
-      <c r="C112" s="98" t="s">
-        <v>550</v>
-      </c>
-      <c r="D112" s="98" t="s">
-        <v>951</v>
-      </c>
-      <c r="E112" s="98" t="s">
-        <v>987</v>
-      </c>
-      <c r="F112" s="98" t="s">
+    <row r="112" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A112" s="95">
+        <v>14</v>
+      </c>
+      <c r="B112" s="94">
+        <v>14</v>
+      </c>
+      <c r="C112" s="94" t="s">
+        <v>982</v>
+      </c>
+      <c r="D112" s="94" t="s">
+        <v>931</v>
+      </c>
+      <c r="E112" s="94" t="s">
+        <v>983</v>
+      </c>
+      <c r="F112" s="94" t="s">
         <v>683</v>
       </c>
-      <c r="G112" s="98" t="s">
-        <v>988</v>
-      </c>
-      <c r="H112" s="98" t="s">
-        <v>989</v>
+      <c r="G112" s="94" t="s">
+        <v>984</v>
+      </c>
+      <c r="H112" s="94" t="s">
+        <v>985</v>
       </c>
       <c r="I112" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A113" s="99">
-        <v>11</v>
-      </c>
-      <c r="B113" s="98">
-        <v>11</v>
-      </c>
-      <c r="C113" s="98" t="s">
-        <v>990</v>
-      </c>
-      <c r="D113" s="98" t="s">
-        <v>951</v>
-      </c>
-      <c r="E113" s="98" t="s">
-        <v>991</v>
-      </c>
-      <c r="F113" s="98" t="s">
+      <c r="A113" s="95">
+        <v>15</v>
+      </c>
+      <c r="B113" s="94">
+        <v>15</v>
+      </c>
+      <c r="C113" s="94" t="s">
+        <v>986</v>
+      </c>
+      <c r="D113" s="94" t="s">
+        <v>931</v>
+      </c>
+      <c r="E113" s="94" t="s">
+        <v>987</v>
+      </c>
+      <c r="F113" s="94" t="s">
         <v>683</v>
       </c>
-      <c r="G113" s="98" t="s">
-        <v>992</v>
-      </c>
-      <c r="H113" s="98" t="s">
-        <v>993</v>
+      <c r="G113" s="94" t="s">
+        <v>988</v>
+      </c>
+      <c r="H113" s="94" t="s">
+        <v>989</v>
       </c>
       <c r="I113" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A114" s="99">
-        <v>12</v>
-      </c>
-      <c r="B114" s="98">
-        <v>12</v>
-      </c>
-      <c r="C114" s="98" t="s">
-        <v>994</v>
-      </c>
-      <c r="D114" s="98" t="s">
-        <v>951</v>
-      </c>
-      <c r="E114" s="98" t="s">
-        <v>995</v>
-      </c>
-      <c r="F114" s="98" t="s">
+      <c r="A114" s="95">
+        <v>16</v>
+      </c>
+      <c r="B114" s="94">
+        <v>16</v>
+      </c>
+      <c r="C114" s="94" t="s">
+        <v>990</v>
+      </c>
+      <c r="D114" s="94" t="s">
+        <v>931</v>
+      </c>
+      <c r="E114" s="94" t="s">
+        <v>991</v>
+      </c>
+      <c r="F114" s="94" t="s">
         <v>683</v>
       </c>
-      <c r="G114" s="98" t="s">
-        <v>996</v>
-      </c>
-      <c r="H114" s="98" t="s">
-        <v>997</v>
+      <c r="G114" s="94" t="s">
+        <v>992</v>
+      </c>
+      <c r="H114" s="94" t="s">
+        <v>993</v>
       </c>
       <c r="I114" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A115" s="99">
-        <v>13</v>
-      </c>
-      <c r="B115" s="98">
-        <v>13</v>
-      </c>
-      <c r="C115" s="98" t="s">
-        <v>998</v>
-      </c>
-      <c r="D115" s="98" t="s">
-        <v>951</v>
-      </c>
-      <c r="E115" s="98" t="s">
-        <v>999</v>
-      </c>
-      <c r="F115" s="98" t="s">
+      <c r="A115" s="95">
+        <v>17</v>
+      </c>
+      <c r="B115" s="94">
+        <v>17</v>
+      </c>
+      <c r="C115" s="94" t="s">
+        <v>994</v>
+      </c>
+      <c r="D115" s="94" t="s">
+        <v>931</v>
+      </c>
+      <c r="E115" s="94" t="s">
+        <v>995</v>
+      </c>
+      <c r="F115" s="94" t="s">
         <v>683</v>
       </c>
-      <c r="G115" s="98" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H115" s="98" t="s">
-        <v>1001</v>
+      <c r="G115" s="94" t="s">
+        <v>996</v>
+      </c>
+      <c r="H115" s="94" t="s">
+        <v>997</v>
       </c>
       <c r="I115" s="91" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A116" s="99">
-        <v>14</v>
-      </c>
-      <c r="B116" s="98">
-        <v>14</v>
-      </c>
-      <c r="C116" s="98" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D116" s="98" t="s">
-        <v>951</v>
-      </c>
-      <c r="E116" s="98" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F116" s="98" t="s">
+    <row r="116" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="95">
+        <v>18</v>
+      </c>
+      <c r="B116" s="94">
+        <v>18</v>
+      </c>
+      <c r="C116" s="94" t="s">
+        <v>998</v>
+      </c>
+      <c r="D116" s="94" t="s">
+        <v>931</v>
+      </c>
+      <c r="E116" s="94" t="s">
+        <v>999</v>
+      </c>
+      <c r="F116" s="94" t="s">
         <v>683</v>
       </c>
-      <c r="G116" s="98" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H116" s="98" t="s">
-        <v>1005</v>
+      <c r="G116" s="94" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H116" s="94" t="s">
+        <v>1001</v>
       </c>
       <c r="I116" s="91" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A117" s="99">
-        <v>15</v>
-      </c>
-      <c r="B117" s="98">
-        <v>15</v>
-      </c>
-      <c r="C117" s="98" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D117" s="98" t="s">
-        <v>951</v>
-      </c>
-      <c r="E117" s="98" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F117" s="98" t="s">
+      <c r="A117" s="95">
+        <v>19</v>
+      </c>
+      <c r="B117" s="94">
+        <v>19</v>
+      </c>
+      <c r="C117" s="94" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D117" s="94" t="s">
+        <v>931</v>
+      </c>
+      <c r="E117" s="94" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F117" s="94" t="s">
         <v>683</v>
       </c>
-      <c r="G117" s="98" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H117" s="98" t="s">
-        <v>1009</v>
+      <c r="G117" s="94" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H117" s="94" t="s">
+        <v>1005</v>
       </c>
       <c r="I117" s="91" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A118" s="99">
-        <v>16</v>
-      </c>
-      <c r="B118" s="98">
-        <v>16</v>
-      </c>
-      <c r="C118" s="98" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D118" s="98" t="s">
-        <v>951</v>
-      </c>
-      <c r="E118" s="98" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F118" s="98" t="s">
+    <row r="118" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="95">
+        <v>20</v>
+      </c>
+      <c r="B118" s="94">
+        <v>20</v>
+      </c>
+      <c r="C118" s="94" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D118" s="94" t="s">
+        <v>931</v>
+      </c>
+      <c r="E118" s="94" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F118" s="94" t="s">
         <v>683</v>
       </c>
-      <c r="G118" s="98" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H118" s="98" t="s">
-        <v>1013</v>
+      <c r="G118" s="94" t="s">
+        <v>980</v>
+      </c>
+      <c r="H118" s="94" t="s">
+        <v>981</v>
       </c>
       <c r="I118" s="91" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A119" s="99">
-        <v>17</v>
-      </c>
-      <c r="B119" s="98">
-        <v>17</v>
-      </c>
-      <c r="C119" s="98" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D119" s="98" t="s">
-        <v>951</v>
-      </c>
-      <c r="E119" s="98" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F119" s="98" t="s">
+    <row r="119" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A119" s="95">
+        <v>21</v>
+      </c>
+      <c r="B119" s="94">
+        <v>21</v>
+      </c>
+      <c r="C119" s="94" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D119" s="94" t="s">
+        <v>931</v>
+      </c>
+      <c r="E119" s="94" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F119" s="94" t="s">
         <v>683</v>
       </c>
-      <c r="G119" s="98" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H119" s="98" t="s">
-        <v>1017</v>
+      <c r="G119" s="94" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H119" s="94" t="s">
+        <v>1011</v>
       </c>
       <c r="I119" s="91" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="99">
-        <v>18</v>
-      </c>
-      <c r="B120" s="98">
-        <v>18</v>
-      </c>
-      <c r="C120" s="98" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D120" s="98" t="s">
-        <v>951</v>
-      </c>
-      <c r="E120" s="98" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F120" s="98" t="s">
+    <row r="120" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A120" s="95">
+        <v>22</v>
+      </c>
+      <c r="B120" s="94">
+        <v>22</v>
+      </c>
+      <c r="C120" s="94" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D120" s="94" t="s">
+        <v>931</v>
+      </c>
+      <c r="E120" s="94" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F120" s="94" t="s">
         <v>683</v>
       </c>
-      <c r="G120" s="98" t="s">
-        <v>1020</v>
-      </c>
-      <c r="H120" s="98" t="s">
-        <v>1021</v>
+      <c r="G120" s="94" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H120" s="94" t="s">
+        <v>1015</v>
       </c>
       <c r="I120" s="91" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A121" s="99">
-        <v>19</v>
-      </c>
-      <c r="B121" s="98">
-        <v>19</v>
-      </c>
-      <c r="C121" s="98" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D121" s="98" t="s">
-        <v>951</v>
-      </c>
-      <c r="E121" s="98" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F121" s="98" t="s">
-        <v>683</v>
-      </c>
-      <c r="G121" s="98" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H121" s="98" t="s">
-        <v>1025</v>
+    <row r="121" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="95">
+        <v>23</v>
+      </c>
+      <c r="B121" s="94">
+        <v>23</v>
+      </c>
+      <c r="C121" s="94" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D121" s="94" t="s">
+        <v>931</v>
+      </c>
+      <c r="E121" s="94" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F121" s="94" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G121" s="94" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H121" s="94" t="s">
+        <v>1020</v>
       </c>
       <c r="I121" s="91" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="99">
-        <v>20</v>
-      </c>
-      <c r="B122" s="98">
-        <v>20</v>
-      </c>
-      <c r="C122" s="98" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D122" s="98" t="s">
-        <v>951</v>
-      </c>
-      <c r="E122" s="98" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F122" s="98" t="s">
-        <v>683</v>
-      </c>
-      <c r="G122" s="98" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H122" s="98" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I122" s="91" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A123" s="99">
-        <v>21</v>
-      </c>
-      <c r="B123" s="98">
-        <v>21</v>
-      </c>
-      <c r="C123" s="98" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D123" s="98" t="s">
-        <v>951</v>
-      </c>
-      <c r="E123" s="98" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F123" s="98" t="s">
-        <v>683</v>
-      </c>
-      <c r="G123" s="98" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H123" s="98" t="s">
-        <v>1031</v>
-      </c>
-      <c r="I123" s="91" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A124" s="99">
-        <v>22</v>
-      </c>
-      <c r="B124" s="98">
-        <v>22</v>
-      </c>
-      <c r="C124" s="98" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D124" s="98" t="s">
-        <v>951</v>
-      </c>
-      <c r="E124" s="98" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F124" s="98" t="s">
-        <v>683</v>
-      </c>
-      <c r="G124" s="98" t="s">
-        <v>1034</v>
-      </c>
-      <c r="H124" s="98" t="s">
-        <v>1035</v>
-      </c>
-      <c r="I124" s="91" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A125" s="99">
-        <v>23</v>
-      </c>
-      <c r="B125" s="98">
-        <v>23</v>
-      </c>
-      <c r="C125" s="98" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D125" s="98" t="s">
-        <v>951</v>
-      </c>
-      <c r="E125" s="98" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F125" s="98" t="s">
-        <v>1038</v>
-      </c>
-      <c r="G125" s="98" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H125" s="98" t="s">
-        <v>1040</v>
-      </c>
-      <c r="I125" s="91" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="96" x14ac:dyDescent="0.3">
-      <c r="A126" s="99">
-        <v>24</v>
-      </c>
-      <c r="B126" s="98">
-        <v>1</v>
-      </c>
-      <c r="C126" s="98" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D126" s="98" t="s">
-        <v>946</v>
-      </c>
-      <c r="E126" s="98" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F126" s="98" t="s">
-        <v>683</v>
-      </c>
-      <c r="G126" s="98" t="s">
-        <v>1043</v>
-      </c>
-      <c r="H126" s="98" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I126" s="101" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="108">
-        <v>25</v>
-      </c>
-      <c r="B127" s="109">
-        <v>2</v>
-      </c>
-      <c r="C127" s="109" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D127" s="109" t="s">
-        <v>951</v>
-      </c>
-      <c r="E127" s="109" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F127" s="98" t="s">
-        <v>1047</v>
-      </c>
-      <c r="G127" s="109" t="s">
-        <v>1048</v>
-      </c>
-      <c r="H127" s="109" t="s">
-        <v>1049</v>
-      </c>
-      <c r="I127" s="107" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="108"/>
-      <c r="B128" s="109"/>
-      <c r="C128" s="109"/>
-      <c r="D128" s="109"/>
-      <c r="E128" s="109"/>
-      <c r="F128" s="98" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G128" s="109"/>
-      <c r="H128" s="109"/>
-      <c r="I128" s="107"/>
-    </row>
-    <row r="129" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="108">
-        <v>26</v>
-      </c>
-      <c r="B129" s="109">
-        <v>3</v>
-      </c>
-      <c r="C129" s="109" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D129" s="109" t="s">
-        <v>951</v>
-      </c>
-      <c r="E129" s="109" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F129" s="98" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G129" s="109" t="s">
-        <v>1054</v>
-      </c>
-      <c r="H129" s="109" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I129" s="107" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A130" s="108"/>
-      <c r="B130" s="109"/>
-      <c r="C130" s="109"/>
-      <c r="D130" s="109"/>
-      <c r="E130" s="109"/>
-      <c r="F130" s="98" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G130" s="109"/>
-      <c r="H130" s="109"/>
-      <c r="I130" s="107"/>
-    </row>
-    <row r="131" spans="1:9" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="102">
-        <v>27</v>
-      </c>
-      <c r="B131" s="103">
-        <v>4</v>
-      </c>
-      <c r="C131" s="103" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D131" s="103" t="s">
-        <v>951</v>
-      </c>
-      <c r="E131" s="103" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F131" s="103" t="s">
-        <v>1059</v>
-      </c>
-      <c r="G131" s="103" t="s">
-        <v>1060</v>
-      </c>
-      <c r="H131" s="103" t="s">
-        <v>1061</v>
-      </c>
-      <c r="I131" s="104" t="s">
-        <v>692</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
+  <mergeCells count="21">
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A63:C63"/>
     <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="A94:C94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1"/>

--- a/Assignment/Module2/Assignment_2_HLR_TESTSCENARIO_TESTCASE.xlsx
+++ b/Assignment/Module2/Assignment_2_HLR_TESTSCENARIO_TESTCASE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HLR_Assignment_2" sheetId="1" r:id="rId1"/>
@@ -4447,10 +4447,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4461,9 +4464,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5689,8 +5689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C363"/>
   <sheetViews>
-    <sheetView topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="G342" sqref="G342"/>
+    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9215,7 +9215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A93" sqref="A93:XFD96"/>
     </sheetView>
   </sheetViews>
@@ -9234,11 +9234,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>665</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="112"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="113"/>
     </row>
     <row r="3" spans="1:9" s="49" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
@@ -10199,11 +10199,11 @@
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="110" t="s">
+      <c r="A38" s="111" t="s">
         <v>752</v>
       </c>
-      <c r="B38" s="111"/>
-      <c r="C38" s="112"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="113"/>
     </row>
     <row r="40" spans="1:9" s="49" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A40" s="65" t="s">
@@ -10816,11 +10816,11 @@
     </row>
     <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="63" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="110" t="s">
+      <c r="A63" s="111" t="s">
         <v>831</v>
       </c>
-      <c r="B63" s="111"/>
-      <c r="C63" s="112"/>
+      <c r="B63" s="112"/>
+      <c r="C63" s="113"/>
     </row>
     <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="65" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -11229,11 +11229,11 @@
     </row>
     <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="80" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="110" t="s">
+      <c r="A80" s="111" t="s">
         <v>887</v>
       </c>
-      <c r="B80" s="111"/>
-      <c r="C80" s="112"/>
+      <c r="B80" s="112"/>
+      <c r="C80" s="113"/>
     </row>
     <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="82" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -11557,11 +11557,11 @@
     </row>
     <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="94" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="110" t="s">
+      <c r="A94" s="111" t="s">
         <v>924</v>
       </c>
-      <c r="B94" s="111"/>
-      <c r="C94" s="112"/>
+      <c r="B94" s="112"/>
+      <c r="C94" s="113"/>
     </row>
     <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="96" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -11623,88 +11623,88 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="108">
+      <c r="A98" s="110">
         <v>2</v>
       </c>
-      <c r="B98" s="109">
+      <c r="B98" s="108">
         <v>2</v>
       </c>
-      <c r="C98" s="109" t="s">
+      <c r="C98" s="108" t="s">
         <v>930</v>
       </c>
-      <c r="D98" s="109" t="s">
+      <c r="D98" s="108" t="s">
         <v>931</v>
       </c>
-      <c r="E98" s="109" t="s">
+      <c r="E98" s="108" t="s">
         <v>932</v>
       </c>
       <c r="F98" s="94" t="s">
         <v>933</v>
       </c>
-      <c r="G98" s="109" t="s">
+      <c r="G98" s="108" t="s">
         <v>934</v>
       </c>
-      <c r="H98" s="109" t="s">
+      <c r="H98" s="108" t="s">
         <v>935</v>
       </c>
-      <c r="I98" s="113" t="s">
+      <c r="I98" s="109" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="108"/>
-      <c r="B99" s="109"/>
-      <c r="C99" s="109"/>
-      <c r="D99" s="109"/>
-      <c r="E99" s="109"/>
+      <c r="A99" s="110"/>
+      <c r="B99" s="108"/>
+      <c r="C99" s="108"/>
+      <c r="D99" s="108"/>
+      <c r="E99" s="108"/>
       <c r="F99" s="94" t="s">
         <v>936</v>
       </c>
-      <c r="G99" s="109"/>
-      <c r="H99" s="109"/>
-      <c r="I99" s="113"/>
+      <c r="G99" s="108"/>
+      <c r="H99" s="108"/>
+      <c r="I99" s="109"/>
     </row>
     <row r="100" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="108">
+      <c r="A100" s="110">
         <v>3</v>
       </c>
-      <c r="B100" s="109">
+      <c r="B100" s="108">
         <v>3</v>
       </c>
-      <c r="C100" s="109" t="s">
+      <c r="C100" s="108" t="s">
         <v>937</v>
       </c>
-      <c r="D100" s="109" t="s">
+      <c r="D100" s="108" t="s">
         <v>931</v>
       </c>
-      <c r="E100" s="109" t="s">
+      <c r="E100" s="108" t="s">
         <v>938</v>
       </c>
       <c r="F100" s="94" t="s">
         <v>939</v>
       </c>
-      <c r="G100" s="109" t="s">
+      <c r="G100" s="108" t="s">
         <v>940</v>
       </c>
-      <c r="H100" s="109" t="s">
+      <c r="H100" s="108" t="s">
         <v>935</v>
       </c>
-      <c r="I100" s="113" t="s">
+      <c r="I100" s="109" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A101" s="108"/>
-      <c r="B101" s="109"/>
-      <c r="C101" s="109"/>
-      <c r="D101" s="109"/>
-      <c r="E101" s="109"/>
+      <c r="A101" s="110"/>
+      <c r="B101" s="108"/>
+      <c r="C101" s="108"/>
+      <c r="D101" s="108"/>
+      <c r="E101" s="108"/>
       <c r="F101" s="94" t="s">
         <v>941</v>
       </c>
-      <c r="G101" s="109"/>
-      <c r="H101" s="109"/>
-      <c r="I101" s="113"/>
+      <c r="G101" s="108"/>
+      <c r="H101" s="108"/>
+      <c r="I101" s="109"/>
     </row>
     <row r="102" spans="1:9" ht="78" x14ac:dyDescent="0.3">
       <c r="A102" s="95">
@@ -12288,6 +12288,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:I99"/>
     <mergeCell ref="G100:G101"/>
     <mergeCell ref="H100:H101"/>
     <mergeCell ref="I100:I101"/>
@@ -12296,19 +12309,6 @@
     <mergeCell ref="C100:C101"/>
     <mergeCell ref="D100:D101"/>
     <mergeCell ref="E100:E101"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A94:C94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1"/>
